--- a/Configurations/testData/testdata_SMP.xlsx
+++ b/Configurations/testData/testdata_SMP.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14235" tabRatio="859" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14235" tabRatio="859" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CONTROL" sheetId="8" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1338" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1328" uniqueCount="230">
   <si>
     <t>SERVICEGROUPID</t>
   </si>
@@ -73,9 +73,6 @@
     <t>WEBEU</t>
   </si>
   <si>
-    <t>EU Web Daily</t>
-  </si>
-  <si>
     <t>BUNDLEID</t>
   </si>
   <si>
@@ -214,12 +211,6 @@
     <t>BIWFU</t>
   </si>
   <si>
-    <t>Data Fair Usage Big Bundle</t>
-  </si>
-  <si>
-    <t>Big Bundles Data for EU Fair Usage, no low balance</t>
-  </si>
-  <si>
     <t>BIWEB</t>
   </si>
   <si>
@@ -247,13 +238,7 @@
     <t>15 June only</t>
   </si>
   <si>
-    <t>Can be done anytime, Max Balance value TBC in May</t>
-  </si>
-  <si>
     <t>Only on 15 June, Max Balance value TBC in May</t>
-  </si>
-  <si>
-    <t>Can be done anytime, MB value in description TBC in May</t>
   </si>
   <si>
     <t>Can be done anytime, MB value in Description TBC in May</t>
@@ -551,29 +536,6 @@
   </si>
   <si>
     <t>AUDIT + UPDATES</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">EU Web Daily Bolt On Partition offering </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>170</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>MB of data - Low Balance at 21MB</t>
-    </r>
   </si>
   <si>
     <t>Pontis - Free UK &amp; EU SMS (capped) to use anytime - use before tariff</t>
@@ -1039,7 +1001,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1200,6 +1162,15 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1508,34 +1479,34 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="43" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B1" s="43" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="45" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B2" s="45" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="48" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B3" s="48" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="44" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B4" s="44" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C4" s="44"/>
       <c r="D4" s="44"/>
@@ -1543,10 +1514,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="49" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B5" s="49" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C5" s="44"/>
       <c r="D5" s="44"/>
@@ -1554,10 +1525,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="50" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B6" s="50" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C6" s="44"/>
       <c r="D6" s="44"/>
@@ -1565,10 +1536,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="51" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B7" s="51" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C7" s="44"/>
       <c r="D7" s="44"/>
@@ -1576,13 +1547,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="44" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B9" s="44" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C9" s="44" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1593,7 +1564,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="44" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1604,7 +1575,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="44" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1615,7 +1586,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="44" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1626,7 +1597,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="44" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1637,7 +1608,7 @@
         <v>4</v>
       </c>
       <c r="C14" s="44" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1648,7 +1619,7 @@
         <v>4</v>
       </c>
       <c r="C15" s="44" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1659,7 +1630,7 @@
         <v>4</v>
       </c>
       <c r="C16" s="44" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1670,7 +1641,7 @@
         <v>5</v>
       </c>
       <c r="C17" s="44" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1681,7 +1652,7 @@
         <v>6</v>
       </c>
       <c r="C18" s="44" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1692,7 +1663,7 @@
         <v>6</v>
       </c>
       <c r="C19" s="44" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1703,7 +1674,7 @@
         <v>7</v>
       </c>
       <c r="C20" s="44" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1714,7 +1685,7 @@
         <v>8</v>
       </c>
       <c r="C21" s="44" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1725,7 +1696,7 @@
         <v>8</v>
       </c>
       <c r="C22" s="44" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -1736,13 +1707,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1763,7 +1734,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -1799,144 +1770,144 @@
         <v>10</v>
       </c>
       <c r="M1" s="22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="72" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="72" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="72" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="73">
+        <v>256000</v>
+      </c>
+      <c r="F2" s="74">
+        <v>10485760</v>
+      </c>
+      <c r="G2" s="73">
+        <v>0</v>
+      </c>
+      <c r="H2" s="73">
+        <v>-1</v>
+      </c>
+      <c r="I2" s="73">
+        <v>-1</v>
+      </c>
+      <c r="J2" s="12">
+        <v>-1</v>
+      </c>
+      <c r="K2" s="12">
+        <v>-1</v>
+      </c>
+      <c r="L2" s="12">
+        <v>-1</v>
+      </c>
+      <c r="M2" s="24" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="E2" s="7">
-        <v>21504</v>
-      </c>
-      <c r="F2" s="7">
+    <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="68" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="68" t="s">
+        <v>220</v>
+      </c>
+      <c r="D3" s="68" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="9">
+        <v>3900</v>
+      </c>
+      <c r="F3" s="67">
         <v>-1</v>
       </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="7">
+      <c r="G3" s="67">
         <v>-1</v>
       </c>
-      <c r="I2" s="7">
+      <c r="H3" s="67">
         <v>-1</v>
       </c>
-      <c r="J2" s="7">
+      <c r="I3" s="67">
         <v>-1</v>
       </c>
-      <c r="K2" s="7">
+      <c r="J3" s="67">
         <v>-1</v>
       </c>
-      <c r="L2" s="7">
+      <c r="K3" s="67">
         <v>-1</v>
       </c>
-      <c r="M2" s="23" t="s">
+      <c r="L3" s="67">
+        <v>-1</v>
+      </c>
+      <c r="M3" s="23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E3" s="7">
+      <c r="B4" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0</v>
+      </c>
+      <c r="F4" s="7">
         <v>-1</v>
       </c>
-      <c r="F3" s="7">
-        <v>10485760</v>
-      </c>
-      <c r="G3" s="7">
-        <v>0</v>
-      </c>
-      <c r="H3" s="7">
+      <c r="G4" s="7">
         <v>-1</v>
       </c>
-      <c r="I3" s="7">
+      <c r="H4" s="7">
         <v>-1</v>
       </c>
-      <c r="J3" s="7">
+      <c r="I4" s="7">
         <v>-1</v>
       </c>
-      <c r="K3" s="7">
+      <c r="J4" s="7">
         <v>-1</v>
       </c>
-      <c r="L3" s="7">
+      <c r="K4" s="7">
         <v>-1</v>
       </c>
-      <c r="M3" s="23" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" s="12">
-        <v>256000</v>
-      </c>
-      <c r="F4" s="9">
-        <v>10485760</v>
-      </c>
-      <c r="G4" s="12">
-        <v>0</v>
-      </c>
-      <c r="H4" s="12">
+      <c r="L4" s="7">
         <v>-1</v>
       </c>
-      <c r="I4" s="12">
-        <v>-1</v>
-      </c>
-      <c r="J4" s="12">
-        <v>-1</v>
-      </c>
-      <c r="K4" s="12">
-        <v>-1</v>
-      </c>
-      <c r="L4" s="12">
-        <v>-1</v>
-      </c>
-      <c r="M4" s="24" t="s">
-        <v>71</v>
+      <c r="M4" s="23" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E5" s="7">
         <v>0</v>
@@ -1963,21 +1934,21 @@
         <v>-1</v>
       </c>
       <c r="M5" s="23" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>79</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>85</v>
       </c>
       <c r="E6" s="7">
         <v>0</v>
@@ -2004,21 +1975,21 @@
         <v>-1</v>
       </c>
       <c r="M6" s="23" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="C7" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>80</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>86</v>
       </c>
       <c r="E7" s="7">
         <v>0</v>
@@ -2045,21 +2016,21 @@
         <v>-1</v>
       </c>
       <c r="M7" s="23" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>81</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>84</v>
       </c>
       <c r="E8" s="7">
         <v>0</v>
@@ -2086,89 +2057,7 @@
         <v>-1</v>
       </c>
       <c r="M8" s="23" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="E9" s="7">
-        <v>0</v>
-      </c>
-      <c r="F9" s="7">
-        <v>-1</v>
-      </c>
-      <c r="G9" s="7">
-        <v>-1</v>
-      </c>
-      <c r="H9" s="7">
-        <v>-1</v>
-      </c>
-      <c r="I9" s="7">
-        <v>-1</v>
-      </c>
-      <c r="J9" s="7">
-        <v>-1</v>
-      </c>
-      <c r="K9" s="7">
-        <v>-1</v>
-      </c>
-      <c r="L9" s="7">
-        <v>-1</v>
-      </c>
-      <c r="M9" s="23" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="E10" s="7">
-        <v>0</v>
-      </c>
-      <c r="F10" s="7">
-        <v>-1</v>
-      </c>
-      <c r="G10" s="7">
-        <v>-1</v>
-      </c>
-      <c r="H10" s="7">
-        <v>-1</v>
-      </c>
-      <c r="I10" s="7">
-        <v>-1</v>
-      </c>
-      <c r="J10" s="7">
-        <v>-1</v>
-      </c>
-      <c r="K10" s="7">
-        <v>-1</v>
-      </c>
-      <c r="L10" s="7">
-        <v>-1</v>
-      </c>
-      <c r="M10" s="23" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -2185,7 +2074,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2202,10 +2091,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>1</v>
@@ -2214,160 +2103,160 @@
         <v>2</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>15</v>
-      </c>
       <c r="G1" s="22" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B2" s="53">
         <v>849</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="E2" s="52">
         <v>42842</v>
       </c>
       <c r="F2" s="16"/>
       <c r="G2" s="23" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B3" s="53">
         <v>850</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="E3" s="52">
         <v>42842</v>
       </c>
       <c r="F3" s="16"/>
       <c r="G3" s="23" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B4" s="53">
         <v>851</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="E4" s="52">
         <v>42842</v>
       </c>
       <c r="F4" s="16"/>
       <c r="G4" s="23" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B5" s="53">
         <v>852</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="E5" s="52">
         <v>42842</v>
       </c>
       <c r="F5" s="16"/>
       <c r="G5" s="23" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B6" s="53">
         <v>853</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E6" s="52">
         <v>42842</v>
       </c>
       <c r="F6" s="16"/>
       <c r="G6" s="23" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B7" s="53">
         <v>854</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E7" s="52">
         <v>42842</v>
       </c>
       <c r="F7" s="16"/>
       <c r="G7" s="23" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B8" s="53">
         <v>855</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E8" s="52">
         <v>42842</v>
       </c>
       <c r="F8" s="16"/>
       <c r="G8" s="23" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -2412,60 +2301,60 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="P1" s="5" t="s">
-        <v>26</v>
-      </c>
       <c r="Q1" s="22" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B2" s="32">
         <v>759</v>
@@ -2477,16 +2366,16 @@
         <v>0</v>
       </c>
       <c r="E2" s="33" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F2" s="32">
         <v>1</v>
       </c>
       <c r="G2" s="33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I2" s="34">
         <v>10485760</v>
@@ -2496,7 +2385,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M2" s="36">
         <v>42901</v>
@@ -2505,12 +2394,12 @@
       <c r="O2" s="35"/>
       <c r="P2" s="35"/>
       <c r="Q2" s="23" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B3" s="27">
         <v>759</v>
@@ -2522,16 +2411,16 @@
         <v>0</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F3" s="27">
         <v>1</v>
       </c>
       <c r="G3" s="28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H3" s="28" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I3" s="27">
         <v>10485760</v>
@@ -2541,7 +2430,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M3" s="31">
         <v>42901</v>
@@ -2550,12 +2439,12 @@
       <c r="O3" s="30"/>
       <c r="P3" s="30"/>
       <c r="Q3" s="23" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B4" s="12">
         <v>759</v>
@@ -2567,16 +2456,16 @@
         <v>0</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F4" s="12">
         <v>1</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I4" s="12">
         <v>180000</v>
@@ -2586,7 +2475,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M4" s="36">
         <v>42901</v>
@@ -2595,12 +2484,12 @@
       <c r="O4" s="10"/>
       <c r="P4" s="10"/>
       <c r="Q4" s="23" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B5" s="12">
         <v>759</v>
@@ -2612,16 +2501,16 @@
         <v>0</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F5" s="12">
         <v>1</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I5" s="12">
         <v>4000</v>
@@ -2631,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M5" s="36">
         <v>42901</v>
@@ -2640,12 +2529,12 @@
       <c r="O5" s="10"/>
       <c r="P5" s="10"/>
       <c r="Q5" s="23" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B6" s="54">
         <v>849</v>
@@ -2657,16 +2546,16 @@
         <v>0</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F6" s="27">
         <v>1</v>
       </c>
       <c r="G6" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="28" t="s">
         <v>27</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>28</v>
       </c>
       <c r="I6" s="27">
         <v>0</v>
@@ -2685,12 +2574,12 @@
       <c r="O6" s="30"/>
       <c r="P6" s="30"/>
       <c r="Q6" s="23" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B7" s="54">
         <v>850</v>
@@ -2702,16 +2591,16 @@
         <v>0</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F7" s="27">
         <v>1</v>
       </c>
       <c r="G7" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="28" t="s">
         <v>27</v>
-      </c>
-      <c r="H7" s="28" t="s">
-        <v>28</v>
       </c>
       <c r="I7" s="27">
         <v>0</v>
@@ -2730,12 +2619,12 @@
       <c r="O7" s="30"/>
       <c r="P7" s="30"/>
       <c r="Q7" s="23" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B8" s="54">
         <v>851</v>
@@ -2747,16 +2636,16 @@
         <v>0</v>
       </c>
       <c r="E8" s="28" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F8" s="27">
         <v>1</v>
       </c>
       <c r="G8" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="28" t="s">
         <v>27</v>
-      </c>
-      <c r="H8" s="28" t="s">
-        <v>28</v>
       </c>
       <c r="I8" s="27">
         <v>0</v>
@@ -2775,12 +2664,12 @@
       <c r="O8" s="30"/>
       <c r="P8" s="30"/>
       <c r="Q8" s="23" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B9" s="54">
         <v>852</v>
@@ -2792,16 +2681,16 @@
         <v>0</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F9" s="27">
         <v>1</v>
       </c>
       <c r="G9" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="28" t="s">
         <v>27</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>28</v>
       </c>
       <c r="I9" s="27">
         <v>0</v>
@@ -2820,12 +2709,12 @@
       <c r="O9" s="30"/>
       <c r="P9" s="30"/>
       <c r="Q9" s="23" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B10" s="54">
         <v>853</v>
@@ -2837,16 +2726,16 @@
         <v>0</v>
       </c>
       <c r="E10" s="28" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F10" s="27">
         <v>1</v>
       </c>
       <c r="G10" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="28" t="s">
         <v>27</v>
-      </c>
-      <c r="H10" s="28" t="s">
-        <v>28</v>
       </c>
       <c r="I10" s="27">
         <v>0</v>
@@ -2865,12 +2754,12 @@
       <c r="O10" s="30"/>
       <c r="P10" s="30"/>
       <c r="Q10" s="23" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B11" s="54">
         <v>854</v>
@@ -2882,16 +2771,16 @@
         <v>0</v>
       </c>
       <c r="E11" s="28" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F11" s="27">
         <v>1</v>
       </c>
       <c r="G11" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="28" t="s">
         <v>27</v>
-      </c>
-      <c r="H11" s="28" t="s">
-        <v>28</v>
       </c>
       <c r="I11" s="27">
         <v>0</v>
@@ -2910,12 +2799,12 @@
       <c r="O11" s="30"/>
       <c r="P11" s="30"/>
       <c r="Q11" s="23" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B12" s="54">
         <v>855</v>
@@ -2933,10 +2822,10 @@
         <v>1</v>
       </c>
       <c r="G12" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="28" t="s">
         <v>27</v>
-      </c>
-      <c r="H12" s="28" t="s">
-        <v>28</v>
       </c>
       <c r="I12" s="29">
         <f>170*1024</f>
@@ -2947,7 +2836,7 @@
         <v>1</v>
       </c>
       <c r="L12" s="55" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M12" s="59">
         <v>42901</v>
@@ -2956,7 +2845,7 @@
       <c r="O12" s="30"/>
       <c r="P12" s="30"/>
       <c r="Q12" s="23" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -2969,7 +2858,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y193"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -3008,22 +2897,22 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>33</v>
-      </c>
       <c r="F1" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>1</v>
@@ -3032,60 +2921,60 @@
         <v>2</v>
       </c>
       <c r="I1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="R1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="T1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="X1" s="5" t="s">
-        <v>47</v>
-      </c>
       <c r="Y1" s="22" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B2" s="57">
         <v>20450</v>
@@ -3094,7 +2983,7 @@
         <v>11107</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E2" s="7">
         <v>993</v>
@@ -3103,10 +2992,10 @@
         <v>849</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="I2" s="7">
         <v>1</v>
@@ -3133,7 +3022,7 @@
         <v>0</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R2" s="56">
         <v>42901</v>
@@ -3155,12 +3044,12 @@
         <v>0</v>
       </c>
       <c r="Y2" s="23" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B3" s="57">
         <v>20470</v>
@@ -3169,7 +3058,7 @@
         <v>11107</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E3" s="7">
         <v>283</v>
@@ -3178,10 +3067,10 @@
         <v>849</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="I3" s="7">
         <v>1</v>
@@ -3208,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R3" s="56">
         <v>42901</v>
@@ -3230,12 +3119,12 @@
         <v>0</v>
       </c>
       <c r="Y3" s="23" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B4" s="57">
         <v>20490</v>
@@ -3244,7 +3133,7 @@
         <v>11127</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E4" s="7">
         <v>993</v>
@@ -3253,10 +3142,10 @@
         <v>850</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="I4" s="7">
         <v>1</v>
@@ -3283,7 +3172,7 @@
         <v>0</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R4" s="56">
         <v>42901</v>
@@ -3305,12 +3194,12 @@
         <v>0</v>
       </c>
       <c r="Y4" s="23" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B5" s="57">
         <v>20491</v>
@@ -3319,7 +3208,7 @@
         <v>11127</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E5" s="7">
         <v>283</v>
@@ -3328,10 +3217,10 @@
         <v>850</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="I5" s="7">
         <v>1</v>
@@ -3358,7 +3247,7 @@
         <v>0</v>
       </c>
       <c r="Q5" s="6" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R5" s="56">
         <v>42901</v>
@@ -3380,12 +3269,12 @@
         <v>0</v>
       </c>
       <c r="Y5" s="23" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B6" s="57">
         <v>20451</v>
@@ -3394,7 +3283,7 @@
         <v>11128</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E6" s="7">
         <v>993</v>
@@ -3403,10 +3292,10 @@
         <v>851</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="I6" s="7">
         <v>1</v>
@@ -3433,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="Q6" s="6" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R6" s="56">
         <v>42901</v>
@@ -3455,12 +3344,12 @@
         <v>0</v>
       </c>
       <c r="Y6" s="23" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B7" s="57">
         <v>20492</v>
@@ -3469,7 +3358,7 @@
         <v>11128</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E7" s="7">
         <v>283</v>
@@ -3478,10 +3367,10 @@
         <v>851</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="I7" s="7">
         <v>1</v>
@@ -3508,7 +3397,7 @@
         <v>0</v>
       </c>
       <c r="Q7" s="6" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R7" s="56">
         <v>42901</v>
@@ -3530,12 +3419,12 @@
         <v>0</v>
       </c>
       <c r="Y7" s="23" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B8" s="57">
         <v>20472</v>
@@ -3544,7 +3433,7 @@
         <v>11147</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E8" s="7">
         <v>993</v>
@@ -3553,10 +3442,10 @@
         <v>852</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="I8" s="7">
         <v>1</v>
@@ -3583,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="Q8" s="6" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R8" s="56">
         <v>42901</v>
@@ -3605,12 +3494,12 @@
         <v>0</v>
       </c>
       <c r="Y8" s="23" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B9" s="57">
         <v>20471</v>
@@ -3619,7 +3508,7 @@
         <v>11147</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E9" s="7">
         <v>283</v>
@@ -3628,10 +3517,10 @@
         <v>852</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="I9" s="7">
         <v>1</v>
@@ -3658,7 +3547,7 @@
         <v>0</v>
       </c>
       <c r="Q9" s="6" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R9" s="56">
         <v>42901</v>
@@ -3680,12 +3569,12 @@
         <v>0</v>
       </c>
       <c r="Y9" s="23" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B10" s="57">
         <v>20452</v>
@@ -3694,7 +3583,7 @@
         <v>11108</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E10" s="7">
         <v>993</v>
@@ -3703,10 +3592,10 @@
         <v>853</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="I10" s="7">
         <v>1</v>
@@ -3733,7 +3622,7 @@
         <v>0</v>
       </c>
       <c r="Q10" s="6" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R10" s="56">
         <v>42901</v>
@@ -3755,12 +3644,12 @@
         <v>0</v>
       </c>
       <c r="Y10" s="23" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B11" s="57">
         <v>20493</v>
@@ -3769,7 +3658,7 @@
         <v>11108</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E11" s="7">
         <v>283</v>
@@ -3778,10 +3667,10 @@
         <v>853</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="I11" s="7">
         <v>1</v>
@@ -3808,7 +3697,7 @@
         <v>0</v>
       </c>
       <c r="Q11" s="6" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R11" s="56">
         <v>42901</v>
@@ -3830,12 +3719,12 @@
         <v>0</v>
       </c>
       <c r="Y11" s="23" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B12" s="57">
         <v>20454</v>
@@ -3844,7 +3733,7 @@
         <v>11109</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E12" s="7">
         <v>993</v>
@@ -3853,10 +3742,10 @@
         <v>854</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="I12" s="7">
         <v>1</v>
@@ -3883,7 +3772,7 @@
         <v>0</v>
       </c>
       <c r="Q12" s="6" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R12" s="56">
         <v>42901</v>
@@ -3905,12 +3794,12 @@
         <v>0</v>
       </c>
       <c r="Y12" s="23" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B13" s="57">
         <v>20453</v>
@@ -3919,7 +3808,7 @@
         <v>11109</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E13" s="7">
         <v>283</v>
@@ -3928,10 +3817,10 @@
         <v>854</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="I13" s="7">
         <v>1</v>
@@ -3958,7 +3847,7 @@
         <v>0</v>
       </c>
       <c r="Q13" s="6" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R13" s="56">
         <v>42901</v>
@@ -3980,12 +3869,12 @@
         <v>0</v>
       </c>
       <c r="Y13" s="23" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B14" s="57">
         <v>20474</v>
@@ -3994,7 +3883,7 @@
         <v>11110</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E14" s="7">
         <v>993</v>
@@ -4003,10 +3892,10 @@
         <v>855</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="I14" s="7">
         <v>1</v>
@@ -4033,7 +3922,7 @@
         <v>0</v>
       </c>
       <c r="Q14" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="R14" s="56">
         <v>42901</v>
@@ -4055,12 +3944,12 @@
         <v>0</v>
       </c>
       <c r="Y14" s="23" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B15" s="57">
         <v>20475</v>
@@ -4069,7 +3958,7 @@
         <v>11110</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E15" s="7">
         <v>993</v>
@@ -4078,10 +3967,10 @@
         <v>855</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="I15" s="7">
         <v>0</v>
@@ -4108,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="Q15" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="R15" s="56">
         <v>42901</v>
@@ -4130,12 +4019,12 @@
         <v>1</v>
       </c>
       <c r="Y15" s="23" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B16" s="57">
         <v>20455</v>
@@ -4144,7 +4033,7 @@
         <v>11110</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E16" s="7">
         <v>283</v>
@@ -4153,10 +4042,10 @@
         <v>855</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="I16" s="7">
         <v>1</v>
@@ -4183,7 +4072,7 @@
         <v>0</v>
       </c>
       <c r="Q16" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="R16" s="56">
         <v>42901</v>
@@ -4205,12 +4094,12 @@
         <v>0</v>
       </c>
       <c r="Y16" s="23" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B17" s="57">
         <v>20456</v>
@@ -4219,7 +4108,7 @@
         <v>11110</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E17" s="7">
         <v>283</v>
@@ -4228,10 +4117,10 @@
         <v>855</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="I17" s="7">
         <v>1</v>
@@ -4258,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="Q17" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="R17" s="56">
         <v>42901</v>
@@ -4280,12 +4169,12 @@
         <v>1</v>
       </c>
       <c r="Y17" s="23" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B18" s="57">
         <v>20473</v>
@@ -4294,7 +4183,7 @@
         <v>11110</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E18" s="7">
         <v>283</v>
@@ -4303,10 +4192,10 @@
         <v>855</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="I18" s="7">
         <v>1</v>
@@ -4333,7 +4222,7 @@
         <v>0</v>
       </c>
       <c r="Q18" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="R18" s="56">
         <v>42901</v>
@@ -4355,12 +4244,12 @@
         <v>1</v>
       </c>
       <c r="Y18" s="23" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B19" s="57">
         <v>20457</v>
@@ -4369,7 +4258,7 @@
         <v>11110</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E19" s="7">
         <v>283</v>
@@ -4378,10 +4267,10 @@
         <v>855</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="I19" s="7">
         <v>1</v>
@@ -4408,7 +4297,7 @@
         <v>0</v>
       </c>
       <c r="Q19" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="R19" s="56">
         <v>42901</v>
@@ -4430,12 +4319,12 @@
         <v>1</v>
       </c>
       <c r="Y19" s="23" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B20" s="57">
         <v>20458</v>
@@ -4444,7 +4333,7 @@
         <v>11110</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E20" s="7">
         <v>283</v>
@@ -4453,10 +4342,10 @@
         <v>855</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="I20" s="7">
         <v>0</v>
@@ -4483,7 +4372,7 @@
         <v>0</v>
       </c>
       <c r="Q20" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="R20" s="56">
         <v>42901</v>
@@ -4505,7 +4394,7 @@
         <v>1</v>
       </c>
       <c r="Y20" s="23" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
@@ -4516,7 +4405,7 @@
         <v>95</v>
       </c>
       <c r="D21" s="61" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E21" s="60">
         <v>283</v>
@@ -4525,10 +4414,10 @@
         <v>93</v>
       </c>
       <c r="G21" s="61" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="H21" s="61" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="I21" s="60">
         <v>1</v>
@@ -4555,7 +4444,7 @@
         <v>0</v>
       </c>
       <c r="Q21" s="61" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="R21" s="62">
         <v>38797</v>
@@ -4587,7 +4476,7 @@
         <v>95</v>
       </c>
       <c r="D22" s="61" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="E22" s="60">
         <v>283</v>
@@ -4596,10 +4485,10 @@
         <v>93</v>
       </c>
       <c r="G22" s="61" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="H22" s="61" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="I22" s="60">
         <v>1</v>
@@ -4626,7 +4515,7 @@
         <v>0</v>
       </c>
       <c r="Q22" s="61" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="R22" s="62">
         <v>38797</v>
@@ -4658,7 +4547,7 @@
         <v>95</v>
       </c>
       <c r="D23" s="61" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E23" s="60">
         <v>283</v>
@@ -4667,10 +4556,10 @@
         <v>93</v>
       </c>
       <c r="G23" s="61" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="H23" s="61" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="I23" s="60">
         <v>1</v>
@@ -4697,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="Q23" s="61" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="R23" s="62">
         <v>39995</v>
@@ -4729,7 +4618,7 @@
         <v>95</v>
       </c>
       <c r="D24" s="61" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E24" s="60">
         <v>283</v>
@@ -4738,10 +4627,10 @@
         <v>93</v>
       </c>
       <c r="G24" s="61" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="H24" s="61" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="I24" s="60">
         <v>1</v>
@@ -4768,7 +4657,7 @@
         <v>0</v>
       </c>
       <c r="Q24" s="61" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="R24" s="62">
         <v>38797</v>
@@ -4800,7 +4689,7 @@
         <v>95</v>
       </c>
       <c r="D25" s="61" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="E25" s="60">
         <v>283</v>
@@ -4809,10 +4698,10 @@
         <v>93</v>
       </c>
       <c r="G25" s="61" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="H25" s="61" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="I25" s="60">
         <v>1</v>
@@ -4839,7 +4728,7 @@
         <v>0</v>
       </c>
       <c r="Q25" s="61" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="R25" s="62">
         <v>39556</v>
@@ -4871,7 +4760,7 @@
         <v>95</v>
       </c>
       <c r="D26" s="61" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="E26" s="60">
         <v>283</v>
@@ -4880,10 +4769,10 @@
         <v>93</v>
       </c>
       <c r="G26" s="61" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="H26" s="61" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="I26" s="60">
         <v>1</v>
@@ -4910,7 +4799,7 @@
         <v>0</v>
       </c>
       <c r="Q26" s="61" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="R26" s="62">
         <v>39521</v>
@@ -4942,7 +4831,7 @@
         <v>95</v>
       </c>
       <c r="D27" s="61" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="E27" s="60">
         <v>283</v>
@@ -4951,10 +4840,10 @@
         <v>93</v>
       </c>
       <c r="G27" s="61" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="H27" s="61" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="I27" s="60">
         <v>1</v>
@@ -4981,7 +4870,7 @@
         <v>0</v>
       </c>
       <c r="Q27" s="61" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="R27" s="62">
         <v>40268</v>
@@ -5013,7 +4902,7 @@
         <v>95</v>
       </c>
       <c r="D28" s="61" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="E28" s="60">
         <v>283</v>
@@ -5022,10 +4911,10 @@
         <v>93</v>
       </c>
       <c r="G28" s="61" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="H28" s="61" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="I28" s="60">
         <v>1</v>
@@ -5052,7 +4941,7 @@
         <v>0</v>
       </c>
       <c r="Q28" s="61" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="R28" s="62">
         <v>41537</v>
@@ -5084,7 +4973,7 @@
         <v>95</v>
       </c>
       <c r="D29" s="61" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="E29" s="60">
         <v>283</v>
@@ -5093,10 +4982,10 @@
         <v>93</v>
       </c>
       <c r="G29" s="61" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="H29" s="61" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="I29" s="60">
         <v>1</v>
@@ -5123,7 +5012,7 @@
         <v>0</v>
       </c>
       <c r="Q29" s="61" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="R29" s="62">
         <v>38755</v>
@@ -5155,7 +5044,7 @@
         <v>95</v>
       </c>
       <c r="D30" s="61" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E30" s="60">
         <v>283</v>
@@ -5164,10 +5053,10 @@
         <v>93</v>
       </c>
       <c r="G30" s="61" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="H30" s="61" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="I30" s="60">
         <v>1</v>
@@ -5194,7 +5083,7 @@
         <v>0</v>
       </c>
       <c r="Q30" s="61" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="R30" s="62">
         <v>38580</v>
@@ -5226,7 +5115,7 @@
         <v>10000</v>
       </c>
       <c r="D31" s="61" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E31" s="60">
         <v>993</v>
@@ -5235,10 +5124,10 @@
         <v>93</v>
       </c>
       <c r="G31" s="61" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="H31" s="61" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="I31" s="60">
         <v>1</v>
@@ -5265,7 +5154,7 @@
         <v>0</v>
       </c>
       <c r="Q31" s="61" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="R31" s="62">
         <v>38797</v>
@@ -5297,7 +5186,7 @@
         <v>95</v>
       </c>
       <c r="D32" s="61" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E32" s="60">
         <v>993</v>
@@ -5306,10 +5195,10 @@
         <v>93</v>
       </c>
       <c r="G32" s="61" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="H32" s="61" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="I32" s="60">
         <v>1</v>
@@ -5336,7 +5225,7 @@
         <v>0</v>
       </c>
       <c r="Q32" s="61" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="R32" s="62">
         <v>38797</v>
@@ -5368,7 +5257,7 @@
         <v>95</v>
       </c>
       <c r="D33" s="61" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E33" s="60">
         <v>993</v>
@@ -5377,10 +5266,10 @@
         <v>93</v>
       </c>
       <c r="G33" s="61" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="H33" s="61" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="I33" s="60">
         <v>1</v>
@@ -5407,7 +5296,7 @@
         <v>0</v>
       </c>
       <c r="Q33" s="61" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="R33" s="62">
         <v>38797</v>
@@ -5439,7 +5328,7 @@
         <v>95</v>
       </c>
       <c r="D34" s="61" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="E34" s="60">
         <v>993</v>
@@ -5448,10 +5337,10 @@
         <v>93</v>
       </c>
       <c r="G34" s="61" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="H34" s="61" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="I34" s="60">
         <v>1</v>
@@ -5478,7 +5367,7 @@
         <v>0</v>
       </c>
       <c r="Q34" s="61" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="R34" s="62">
         <v>38797</v>
@@ -5510,7 +5399,7 @@
         <v>95</v>
       </c>
       <c r="D35" s="61" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="E35" s="60">
         <v>993</v>
@@ -5519,10 +5408,10 @@
         <v>93</v>
       </c>
       <c r="G35" s="61" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="H35" s="61" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="I35" s="60">
         <v>1</v>
@@ -5549,7 +5438,7 @@
         <v>0</v>
       </c>
       <c r="Q35" s="61" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="R35" s="62">
         <v>38797</v>
@@ -5581,7 +5470,7 @@
         <v>95</v>
       </c>
       <c r="D36" s="61" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="E36" s="60">
         <v>993</v>
@@ -5590,10 +5479,10 @@
         <v>93</v>
       </c>
       <c r="G36" s="61" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="H36" s="61" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="I36" s="60">
         <v>1</v>
@@ -5620,7 +5509,7 @@
         <v>0</v>
       </c>
       <c r="Q36" s="61" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="R36" s="62">
         <v>38797</v>
@@ -5652,7 +5541,7 @@
         <v>95</v>
       </c>
       <c r="D37" s="61" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="E37" s="60">
         <v>993</v>
@@ -5661,10 +5550,10 @@
         <v>93</v>
       </c>
       <c r="G37" s="61" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="H37" s="61" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="I37" s="60">
         <v>1</v>
@@ -5691,7 +5580,7 @@
         <v>0</v>
       </c>
       <c r="Q37" s="61" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="R37" s="62">
         <v>38797</v>
@@ -5723,7 +5612,7 @@
         <v>95</v>
       </c>
       <c r="D38" s="61" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="E38" s="60">
         <v>993</v>
@@ -5732,10 +5621,10 @@
         <v>93</v>
       </c>
       <c r="G38" s="61" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="H38" s="61" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="I38" s="60">
         <v>1</v>
@@ -5762,7 +5651,7 @@
         <v>0</v>
       </c>
       <c r="Q38" s="61" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="R38" s="62">
         <v>38797</v>
@@ -5794,7 +5683,7 @@
         <v>95</v>
       </c>
       <c r="D39" s="61" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="E39" s="60">
         <v>993</v>
@@ -5803,10 +5692,10 @@
         <v>93</v>
       </c>
       <c r="G39" s="61" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="H39" s="61" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="I39" s="60">
         <v>1</v>
@@ -5833,7 +5722,7 @@
         <v>0</v>
       </c>
       <c r="Q39" s="61" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="R39" s="62">
         <v>39995</v>
@@ -5865,7 +5754,7 @@
         <v>95</v>
       </c>
       <c r="D40" s="61" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E40" s="60">
         <v>993</v>
@@ -5874,10 +5763,10 @@
         <v>93</v>
       </c>
       <c r="G40" s="61" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="H40" s="61" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="I40" s="60">
         <v>1</v>
@@ -5904,7 +5793,7 @@
         <v>0</v>
       </c>
       <c r="Q40" s="61" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="R40" s="62">
         <v>38797</v>
@@ -5936,7 +5825,7 @@
         <v>95</v>
       </c>
       <c r="D41" s="61" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="E41" s="60">
         <v>993</v>
@@ -5945,10 +5834,10 @@
         <v>93</v>
       </c>
       <c r="G41" s="61" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="H41" s="61" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="I41" s="60">
         <v>1</v>
@@ -5975,7 +5864,7 @@
         <v>0</v>
       </c>
       <c r="Q41" s="61" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="R41" s="62">
         <v>38797</v>
@@ -6007,7 +5896,7 @@
         <v>95</v>
       </c>
       <c r="D42" s="61" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="E42" s="60">
         <v>993</v>
@@ -6016,10 +5905,10 @@
         <v>93</v>
       </c>
       <c r="G42" s="61" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="H42" s="61" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="I42" s="60">
         <v>1</v>
@@ -6046,7 +5935,7 @@
         <v>0</v>
       </c>
       <c r="Q42" s="61" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="R42" s="62">
         <v>38797</v>
@@ -6078,7 +5967,7 @@
         <v>95</v>
       </c>
       <c r="D43" s="61" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E43" s="60">
         <v>993</v>
@@ -6087,10 +5976,10 @@
         <v>93</v>
       </c>
       <c r="G43" s="61" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="H43" s="61" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="I43" s="60">
         <v>1</v>
@@ -6117,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="Q43" s="61" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="R43" s="62">
         <v>39556</v>
@@ -6149,7 +6038,7 @@
         <v>95</v>
       </c>
       <c r="D44" s="61" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="E44" s="60">
         <v>993</v>
@@ -6158,10 +6047,10 @@
         <v>93</v>
       </c>
       <c r="G44" s="61" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="H44" s="61" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="I44" s="60">
         <v>1</v>
@@ -6188,7 +6077,7 @@
         <v>0</v>
       </c>
       <c r="Q44" s="61" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="R44" s="62">
         <v>39520</v>
@@ -6220,7 +6109,7 @@
         <v>95</v>
       </c>
       <c r="D45" s="61" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E45" s="60">
         <v>993</v>
@@ -6229,10 +6118,10 @@
         <v>93</v>
       </c>
       <c r="G45" s="61" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="H45" s="61" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="I45" s="60">
         <v>1</v>
@@ -6259,7 +6148,7 @@
         <v>0</v>
       </c>
       <c r="Q45" s="61" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="R45" s="62">
         <v>40268</v>
@@ -6291,7 +6180,7 @@
         <v>95</v>
       </c>
       <c r="D46" s="61" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="E46" s="60">
         <v>993</v>
@@ -6300,10 +6189,10 @@
         <v>93</v>
       </c>
       <c r="G46" s="61" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="H46" s="61" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="I46" s="60">
         <v>1</v>
@@ -6330,7 +6219,7 @@
         <v>0</v>
       </c>
       <c r="Q46" s="61" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="R46" s="62">
         <v>41542</v>
@@ -6362,7 +6251,7 @@
         <v>95</v>
       </c>
       <c r="D47" s="61" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="E47" s="60">
         <v>993</v>
@@ -6371,10 +6260,10 @@
         <v>93</v>
       </c>
       <c r="G47" s="61" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="H47" s="61" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="I47" s="60">
         <v>1</v>
@@ -6401,7 +6290,7 @@
         <v>0</v>
       </c>
       <c r="Q47" s="61" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="R47" s="62">
         <v>38755</v>
@@ -6433,7 +6322,7 @@
         <v>95</v>
       </c>
       <c r="D48" s="61" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="E48" s="60">
         <v>993</v>
@@ -6442,10 +6331,10 @@
         <v>93</v>
       </c>
       <c r="G48" s="61" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="H48" s="61" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="I48" s="60">
         <v>1</v>
@@ -6472,7 +6361,7 @@
         <v>0</v>
       </c>
       <c r="Q48" s="61" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="R48" s="62">
         <v>38580</v>
@@ -6504,7 +6393,7 @@
         <v>95</v>
       </c>
       <c r="D49" s="61" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E49" s="60">
         <v>993</v>
@@ -6513,10 +6402,10 @@
         <v>93</v>
       </c>
       <c r="G49" s="61" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="H49" s="61" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="I49" s="60">
         <v>1</v>
@@ -6543,7 +6432,7 @@
         <v>0</v>
       </c>
       <c r="Q49" s="61" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="R49" s="62">
         <v>38579</v>
@@ -6575,7 +6464,7 @@
         <v>2240</v>
       </c>
       <c r="D50" s="61" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E50" s="60">
         <v>283</v>
@@ -6584,10 +6473,10 @@
         <v>195</v>
       </c>
       <c r="G50" s="61" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="H50" s="61" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="I50" s="60">
         <v>1</v>
@@ -6614,7 +6503,7 @@
         <v>0</v>
       </c>
       <c r="Q50" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R50" s="62">
         <v>39114</v>
@@ -6646,7 +6535,7 @@
         <v>2240</v>
       </c>
       <c r="D51" s="61" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E51" s="60">
         <v>283</v>
@@ -6655,10 +6544,10 @@
         <v>195</v>
       </c>
       <c r="G51" s="61" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="H51" s="61" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="I51" s="60">
         <v>1</v>
@@ -6685,7 +6574,7 @@
         <v>0</v>
       </c>
       <c r="Q51" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R51" s="62">
         <v>39114</v>
@@ -6717,7 +6606,7 @@
         <v>2240</v>
       </c>
       <c r="D52" s="61" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="E52" s="60">
         <v>283</v>
@@ -6726,10 +6615,10 @@
         <v>195</v>
       </c>
       <c r="G52" s="61" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="H52" s="61" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="I52" s="60">
         <v>1</v>
@@ -6756,7 +6645,7 @@
         <v>0</v>
       </c>
       <c r="Q52" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R52" s="62">
         <v>39114</v>
@@ -6788,7 +6677,7 @@
         <v>2240</v>
       </c>
       <c r="D53" s="61" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E53" s="60">
         <v>283</v>
@@ -6797,10 +6686,10 @@
         <v>195</v>
       </c>
       <c r="G53" s="61" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="H53" s="61" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="I53" s="60">
         <v>1</v>
@@ -6827,7 +6716,7 @@
         <v>0</v>
       </c>
       <c r="Q53" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R53" s="62">
         <v>39114</v>
@@ -6859,7 +6748,7 @@
         <v>2240</v>
       </c>
       <c r="D54" s="61" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E54" s="60">
         <v>283</v>
@@ -6868,10 +6757,10 @@
         <v>195</v>
       </c>
       <c r="G54" s="61" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="H54" s="61" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="I54" s="60">
         <v>1</v>
@@ -6898,7 +6787,7 @@
         <v>0</v>
       </c>
       <c r="Q54" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R54" s="62">
         <v>39114</v>
@@ -6930,7 +6819,7 @@
         <v>2240</v>
       </c>
       <c r="D55" s="61" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="E55" s="60">
         <v>283</v>
@@ -6939,10 +6828,10 @@
         <v>195</v>
       </c>
       <c r="G55" s="61" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="H55" s="61" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="I55" s="60">
         <v>1</v>
@@ -6969,7 +6858,7 @@
         <v>0</v>
       </c>
       <c r="Q55" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R55" s="62">
         <v>39462</v>
@@ -7001,7 +6890,7 @@
         <v>2240</v>
       </c>
       <c r="D56" s="61" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="E56" s="60">
         <v>283</v>
@@ -7010,10 +6899,10 @@
         <v>195</v>
       </c>
       <c r="G56" s="61" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="H56" s="61" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="I56" s="60">
         <v>1</v>
@@ -7040,7 +6929,7 @@
         <v>0</v>
       </c>
       <c r="Q56" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R56" s="62">
         <v>39521</v>
@@ -7072,7 +6961,7 @@
         <v>2240</v>
       </c>
       <c r="D57" s="61" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="E57" s="60">
         <v>283</v>
@@ -7081,10 +6970,10 @@
         <v>195</v>
       </c>
       <c r="G57" s="61" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="H57" s="61" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="I57" s="60">
         <v>1</v>
@@ -7111,7 +7000,7 @@
         <v>0</v>
       </c>
       <c r="Q57" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R57" s="62">
         <v>40268</v>
@@ -7143,7 +7032,7 @@
         <v>2240</v>
       </c>
       <c r="D58" s="61" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="E58" s="60">
         <v>283</v>
@@ -7152,10 +7041,10 @@
         <v>195</v>
       </c>
       <c r="G58" s="61" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="H58" s="61" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="I58" s="60">
         <v>1</v>
@@ -7182,7 +7071,7 @@
         <v>0</v>
       </c>
       <c r="Q58" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R58" s="62">
         <v>41537</v>
@@ -7214,7 +7103,7 @@
         <v>2240</v>
       </c>
       <c r="D59" s="61" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="E59" s="60">
         <v>283</v>
@@ -7223,10 +7112,10 @@
         <v>195</v>
       </c>
       <c r="G59" s="61" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="H59" s="61" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="I59" s="60">
         <v>1</v>
@@ -7253,7 +7142,7 @@
         <v>0</v>
       </c>
       <c r="Q59" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R59" s="62">
         <v>39114</v>
@@ -7285,7 +7174,7 @@
         <v>2240</v>
       </c>
       <c r="D60" s="61" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E60" s="60">
         <v>283</v>
@@ -7294,10 +7183,10 @@
         <v>195</v>
       </c>
       <c r="G60" s="61" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="H60" s="61" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="I60" s="60">
         <v>1</v>
@@ -7324,7 +7213,7 @@
         <v>0</v>
       </c>
       <c r="Q60" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R60" s="62">
         <v>39000</v>
@@ -7356,7 +7245,7 @@
         <v>2240</v>
       </c>
       <c r="D61" s="61" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E61" s="60">
         <v>993</v>
@@ -7365,10 +7254,10 @@
         <v>195</v>
       </c>
       <c r="G61" s="61" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="H61" s="61" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="I61" s="60">
         <v>1</v>
@@ -7395,7 +7284,7 @@
         <v>0</v>
       </c>
       <c r="Q61" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R61" s="62">
         <v>39114</v>
@@ -7427,7 +7316,7 @@
         <v>2240</v>
       </c>
       <c r="D62" s="61" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E62" s="60">
         <v>993</v>
@@ -7436,10 +7325,10 @@
         <v>195</v>
       </c>
       <c r="G62" s="61" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="H62" s="61" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="I62" s="60">
         <v>1</v>
@@ -7466,7 +7355,7 @@
         <v>0</v>
       </c>
       <c r="Q62" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R62" s="62">
         <v>39114</v>
@@ -7498,7 +7387,7 @@
         <v>2240</v>
       </c>
       <c r="D63" s="61" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E63" s="60">
         <v>993</v>
@@ -7507,10 +7396,10 @@
         <v>195</v>
       </c>
       <c r="G63" s="61" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="H63" s="61" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="I63" s="60">
         <v>1</v>
@@ -7537,7 +7426,7 @@
         <v>0</v>
       </c>
       <c r="Q63" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R63" s="62">
         <v>39114</v>
@@ -7569,7 +7458,7 @@
         <v>2240</v>
       </c>
       <c r="D64" s="61" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="E64" s="60">
         <v>993</v>
@@ -7578,10 +7467,10 @@
         <v>195</v>
       </c>
       <c r="G64" s="61" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="H64" s="61" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="I64" s="60">
         <v>1</v>
@@ -7608,7 +7497,7 @@
         <v>0</v>
       </c>
       <c r="Q64" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R64" s="62">
         <v>39114</v>
@@ -7640,7 +7529,7 @@
         <v>2240</v>
       </c>
       <c r="D65" s="61" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="E65" s="60">
         <v>993</v>
@@ -7649,10 +7538,10 @@
         <v>195</v>
       </c>
       <c r="G65" s="61" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="H65" s="61" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="I65" s="60">
         <v>1</v>
@@ -7679,7 +7568,7 @@
         <v>0</v>
       </c>
       <c r="Q65" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R65" s="62">
         <v>39114</v>
@@ -7711,7 +7600,7 @@
         <v>2240</v>
       </c>
       <c r="D66" s="61" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="E66" s="60">
         <v>993</v>
@@ -7720,10 +7609,10 @@
         <v>195</v>
       </c>
       <c r="G66" s="61" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="H66" s="61" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="I66" s="60">
         <v>1</v>
@@ -7750,7 +7639,7 @@
         <v>0</v>
       </c>
       <c r="Q66" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R66" s="62">
         <v>39114</v>
@@ -7782,7 +7671,7 @@
         <v>2240</v>
       </c>
       <c r="D67" s="61" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="E67" s="60">
         <v>993</v>
@@ -7791,10 +7680,10 @@
         <v>195</v>
       </c>
       <c r="G67" s="61" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="H67" s="61" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="I67" s="60">
         <v>1</v>
@@ -7821,7 +7710,7 @@
         <v>0</v>
       </c>
       <c r="Q67" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R67" s="62">
         <v>39114</v>
@@ -7853,7 +7742,7 @@
         <v>2240</v>
       </c>
       <c r="D68" s="61" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="E68" s="60">
         <v>993</v>
@@ -7862,10 +7751,10 @@
         <v>195</v>
       </c>
       <c r="G68" s="61" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="H68" s="61" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="I68" s="60">
         <v>1</v>
@@ -7892,7 +7781,7 @@
         <v>0</v>
       </c>
       <c r="Q68" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R68" s="62">
         <v>39114</v>
@@ -7924,7 +7813,7 @@
         <v>2240</v>
       </c>
       <c r="D69" s="61" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="E69" s="60">
         <v>993</v>
@@ -7933,10 +7822,10 @@
         <v>195</v>
       </c>
       <c r="G69" s="61" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="H69" s="61" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="I69" s="60">
         <v>1</v>
@@ -7963,7 +7852,7 @@
         <v>0</v>
       </c>
       <c r="Q69" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R69" s="62">
         <v>39114</v>
@@ -7995,7 +7884,7 @@
         <v>2240</v>
       </c>
       <c r="D70" s="61" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="E70" s="60">
         <v>993</v>
@@ -8004,10 +7893,10 @@
         <v>195</v>
       </c>
       <c r="G70" s="61" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="H70" s="61" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="I70" s="60">
         <v>1</v>
@@ -8034,7 +7923,7 @@
         <v>0</v>
       </c>
       <c r="Q70" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R70" s="62">
         <v>39114</v>
@@ -8066,7 +7955,7 @@
         <v>2240</v>
       </c>
       <c r="D71" s="61" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="E71" s="60">
         <v>993</v>
@@ -8075,10 +7964,10 @@
         <v>195</v>
       </c>
       <c r="G71" s="61" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="H71" s="61" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="I71" s="60">
         <v>1</v>
@@ -8105,7 +7994,7 @@
         <v>0</v>
       </c>
       <c r="Q71" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R71" s="62">
         <v>39114</v>
@@ -8137,7 +8026,7 @@
         <v>2240</v>
       </c>
       <c r="D72" s="61" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="E72" s="60">
         <v>993</v>
@@ -8146,10 +8035,10 @@
         <v>195</v>
       </c>
       <c r="G72" s="61" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="H72" s="61" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="I72" s="60">
         <v>1</v>
@@ -8176,7 +8065,7 @@
         <v>0</v>
       </c>
       <c r="Q72" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R72" s="62">
         <v>39114</v>
@@ -8208,7 +8097,7 @@
         <v>2240</v>
       </c>
       <c r="D73" s="61" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E73" s="60">
         <v>993</v>
@@ -8217,10 +8106,10 @@
         <v>195</v>
       </c>
       <c r="G73" s="61" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="H73" s="61" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="I73" s="60">
         <v>1</v>
@@ -8247,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="Q73" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R73" s="62">
         <v>39114</v>
@@ -8279,7 +8168,7 @@
         <v>2240</v>
       </c>
       <c r="D74" s="61" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="E74" s="60">
         <v>993</v>
@@ -8288,10 +8177,10 @@
         <v>195</v>
       </c>
       <c r="G74" s="61" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="H74" s="61" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="I74" s="60">
         <v>1</v>
@@ -8318,7 +8207,7 @@
         <v>0</v>
       </c>
       <c r="Q74" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R74" s="62">
         <v>39114</v>
@@ -8350,7 +8239,7 @@
         <v>2240</v>
       </c>
       <c r="D75" s="61" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="E75" s="60">
         <v>993</v>
@@ -8359,10 +8248,10 @@
         <v>195</v>
       </c>
       <c r="G75" s="61" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="H75" s="61" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="I75" s="60">
         <v>1</v>
@@ -8389,7 +8278,7 @@
         <v>0</v>
       </c>
       <c r="Q75" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R75" s="62">
         <v>39114</v>
@@ -8421,7 +8310,7 @@
         <v>2240</v>
       </c>
       <c r="D76" s="61" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E76" s="60">
         <v>993</v>
@@ -8430,10 +8319,10 @@
         <v>195</v>
       </c>
       <c r="G76" s="61" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="H76" s="61" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="I76" s="60">
         <v>1</v>
@@ -8460,7 +8349,7 @@
         <v>0</v>
       </c>
       <c r="Q76" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R76" s="62">
         <v>39114</v>
@@ -8492,7 +8381,7 @@
         <v>2240</v>
       </c>
       <c r="D77" s="61" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="E77" s="60">
         <v>993</v>
@@ -8501,10 +8390,10 @@
         <v>195</v>
       </c>
       <c r="G77" s="61" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="H77" s="61" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="I77" s="60">
         <v>1</v>
@@ -8531,7 +8420,7 @@
         <v>0</v>
       </c>
       <c r="Q77" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R77" s="62">
         <v>39114</v>
@@ -8563,7 +8452,7 @@
         <v>2240</v>
       </c>
       <c r="D78" s="61" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="E78" s="60">
         <v>993</v>
@@ -8572,10 +8461,10 @@
         <v>195</v>
       </c>
       <c r="G78" s="61" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="H78" s="61" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="I78" s="60">
         <v>1</v>
@@ -8602,7 +8491,7 @@
         <v>0</v>
       </c>
       <c r="Q78" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R78" s="62">
         <v>39114</v>
@@ -8634,7 +8523,7 @@
         <v>2240</v>
       </c>
       <c r="D79" s="61" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E79" s="60">
         <v>993</v>
@@ -8643,10 +8532,10 @@
         <v>195</v>
       </c>
       <c r="G79" s="61" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="H79" s="61" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="I79" s="60">
         <v>1</v>
@@ -8673,7 +8562,7 @@
         <v>0</v>
       </c>
       <c r="Q79" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R79" s="62">
         <v>39462</v>
@@ -8705,7 +8594,7 @@
         <v>2240</v>
       </c>
       <c r="D80" s="61" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="E80" s="60">
         <v>993</v>
@@ -8714,10 +8603,10 @@
         <v>195</v>
       </c>
       <c r="G80" s="61" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="H80" s="61" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="I80" s="60">
         <v>1</v>
@@ -8744,7 +8633,7 @@
         <v>0</v>
       </c>
       <c r="Q80" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R80" s="62">
         <v>39520</v>
@@ -8776,7 +8665,7 @@
         <v>2240</v>
       </c>
       <c r="D81" s="61" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E81" s="60">
         <v>993</v>
@@ -8785,10 +8674,10 @@
         <v>195</v>
       </c>
       <c r="G81" s="61" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="H81" s="61" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="I81" s="60">
         <v>1</v>
@@ -8815,7 +8704,7 @@
         <v>0</v>
       </c>
       <c r="Q81" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R81" s="62">
         <v>40268</v>
@@ -8847,7 +8736,7 @@
         <v>2240</v>
       </c>
       <c r="D82" s="61" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="E82" s="60">
         <v>993</v>
@@ -8856,10 +8745,10 @@
         <v>195</v>
       </c>
       <c r="G82" s="61" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="H82" s="61" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="I82" s="60">
         <v>1</v>
@@ -8886,7 +8775,7 @@
         <v>0</v>
       </c>
       <c r="Q82" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R82" s="62">
         <v>41542</v>
@@ -8918,7 +8807,7 @@
         <v>2240</v>
       </c>
       <c r="D83" s="61" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="E83" s="60">
         <v>993</v>
@@ -8927,10 +8816,10 @@
         <v>195</v>
       </c>
       <c r="G83" s="61" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="H83" s="61" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="I83" s="60">
         <v>1</v>
@@ -8957,7 +8846,7 @@
         <v>0</v>
       </c>
       <c r="Q83" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R83" s="62">
         <v>39114</v>
@@ -8989,7 +8878,7 @@
         <v>2240</v>
       </c>
       <c r="D84" s="61" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="E84" s="60">
         <v>993</v>
@@ -8998,10 +8887,10 @@
         <v>195</v>
       </c>
       <c r="G84" s="61" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="H84" s="61" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="I84" s="60">
         <v>1</v>
@@ -9028,7 +8917,7 @@
         <v>0</v>
       </c>
       <c r="Q84" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R84" s="62">
         <v>39000</v>
@@ -9060,7 +8949,7 @@
         <v>2240</v>
       </c>
       <c r="D85" s="61" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E85" s="60">
         <v>993</v>
@@ -9069,10 +8958,10 @@
         <v>195</v>
       </c>
       <c r="G85" s="61" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="H85" s="61" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="I85" s="60">
         <v>1</v>
@@ -9099,7 +8988,7 @@
         <v>0</v>
       </c>
       <c r="Q85" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R85" s="62">
         <v>39000</v>
@@ -9131,7 +9020,7 @@
         <v>2241</v>
       </c>
       <c r="D86" s="61" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="E86" s="60">
         <v>283</v>
@@ -9140,10 +9029,10 @@
         <v>196</v>
       </c>
       <c r="G86" s="61" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="H86" s="61" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="I86" s="60">
         <v>1</v>
@@ -9170,7 +9059,7 @@
         <v>0</v>
       </c>
       <c r="Q86" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R86" s="62">
         <v>39023</v>
@@ -9202,7 +9091,7 @@
         <v>2241</v>
       </c>
       <c r="D87" s="61" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E87" s="60">
         <v>283</v>
@@ -9211,10 +9100,10 @@
         <v>196</v>
       </c>
       <c r="G87" s="61" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="H87" s="61" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="I87" s="60">
         <v>1</v>
@@ -9241,7 +9130,7 @@
         <v>0</v>
       </c>
       <c r="Q87" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R87" s="62">
         <v>39023</v>
@@ -9273,7 +9162,7 @@
         <v>2241</v>
       </c>
       <c r="D88" s="61" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="E88" s="60">
         <v>283</v>
@@ -9282,10 +9171,10 @@
         <v>196</v>
       </c>
       <c r="G88" s="61" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="H88" s="61" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="I88" s="60">
         <v>1</v>
@@ -9312,7 +9201,7 @@
         <v>0</v>
       </c>
       <c r="Q88" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R88" s="62">
         <v>39023</v>
@@ -9344,7 +9233,7 @@
         <v>2241</v>
       </c>
       <c r="D89" s="61" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E89" s="60">
         <v>283</v>
@@ -9353,10 +9242,10 @@
         <v>196</v>
       </c>
       <c r="G89" s="61" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="H89" s="61" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="I89" s="60">
         <v>1</v>
@@ -9383,7 +9272,7 @@
         <v>0</v>
       </c>
       <c r="Q89" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R89" s="62">
         <v>39023</v>
@@ -9415,7 +9304,7 @@
         <v>2241</v>
       </c>
       <c r="D90" s="61" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E90" s="60">
         <v>283</v>
@@ -9424,10 +9313,10 @@
         <v>196</v>
       </c>
       <c r="G90" s="61" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="H90" s="61" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="I90" s="60">
         <v>1</v>
@@ -9454,7 +9343,7 @@
         <v>0</v>
       </c>
       <c r="Q90" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R90" s="62">
         <v>39023</v>
@@ -9486,7 +9375,7 @@
         <v>2241</v>
       </c>
       <c r="D91" s="61" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="E91" s="60">
         <v>283</v>
@@ -9495,10 +9384,10 @@
         <v>196</v>
       </c>
       <c r="G91" s="61" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="H91" s="61" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="I91" s="60">
         <v>1</v>
@@ -9525,7 +9414,7 @@
         <v>0</v>
       </c>
       <c r="Q91" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R91" s="62">
         <v>39462</v>
@@ -9557,7 +9446,7 @@
         <v>2241</v>
       </c>
       <c r="D92" s="61" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="E92" s="60">
         <v>283</v>
@@ -9566,10 +9455,10 @@
         <v>196</v>
       </c>
       <c r="G92" s="61" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="H92" s="61" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="I92" s="60">
         <v>1</v>
@@ -9596,7 +9485,7 @@
         <v>0</v>
       </c>
       <c r="Q92" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R92" s="62">
         <v>39521</v>
@@ -9628,7 +9517,7 @@
         <v>2241</v>
       </c>
       <c r="D93" s="61" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="E93" s="60">
         <v>283</v>
@@ -9637,10 +9526,10 @@
         <v>196</v>
       </c>
       <c r="G93" s="61" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="H93" s="61" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="I93" s="60">
         <v>1</v>
@@ -9667,7 +9556,7 @@
         <v>0</v>
       </c>
       <c r="Q93" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R93" s="62">
         <v>40268</v>
@@ -9699,7 +9588,7 @@
         <v>2241</v>
       </c>
       <c r="D94" s="61" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="E94" s="60">
         <v>283</v>
@@ -9708,10 +9597,10 @@
         <v>196</v>
       </c>
       <c r="G94" s="61" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="H94" s="61" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="I94" s="60">
         <v>1</v>
@@ -9738,7 +9627,7 @@
         <v>0</v>
       </c>
       <c r="Q94" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R94" s="62">
         <v>41537</v>
@@ -9770,7 +9659,7 @@
         <v>2241</v>
       </c>
       <c r="D95" s="61" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="E95" s="60">
         <v>283</v>
@@ -9779,10 +9668,10 @@
         <v>196</v>
       </c>
       <c r="G95" s="61" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="H95" s="61" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="I95" s="60">
         <v>1</v>
@@ -9809,7 +9698,7 @@
         <v>0</v>
       </c>
       <c r="Q95" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R95" s="62">
         <v>39023</v>
@@ -9841,7 +9730,7 @@
         <v>2241</v>
       </c>
       <c r="D96" s="61" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E96" s="60">
         <v>283</v>
@@ -9850,10 +9739,10 @@
         <v>196</v>
       </c>
       <c r="G96" s="61" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="H96" s="61" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="I96" s="60">
         <v>1</v>
@@ -9880,7 +9769,7 @@
         <v>0</v>
       </c>
       <c r="Q96" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R96" s="62">
         <v>39000</v>
@@ -9912,7 +9801,7 @@
         <v>2241</v>
       </c>
       <c r="D97" s="61" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E97" s="60">
         <v>993</v>
@@ -9921,10 +9810,10 @@
         <v>196</v>
       </c>
       <c r="G97" s="61" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="H97" s="61" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="I97" s="60">
         <v>1</v>
@@ -9951,7 +9840,7 @@
         <v>0</v>
       </c>
       <c r="Q97" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R97" s="62">
         <v>39023</v>
@@ -9983,7 +9872,7 @@
         <v>2241</v>
       </c>
       <c r="D98" s="61" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E98" s="60">
         <v>993</v>
@@ -9992,10 +9881,10 @@
         <v>196</v>
       </c>
       <c r="G98" s="61" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="H98" s="61" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="I98" s="60">
         <v>1</v>
@@ -10022,7 +9911,7 @@
         <v>0</v>
       </c>
       <c r="Q98" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R98" s="62">
         <v>39023</v>
@@ -10054,7 +9943,7 @@
         <v>2241</v>
       </c>
       <c r="D99" s="61" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E99" s="60">
         <v>993</v>
@@ -10063,10 +9952,10 @@
         <v>196</v>
       </c>
       <c r="G99" s="61" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="H99" s="61" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="I99" s="60">
         <v>1</v>
@@ -10093,7 +9982,7 @@
         <v>0</v>
       </c>
       <c r="Q99" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R99" s="62">
         <v>39023</v>
@@ -10125,7 +10014,7 @@
         <v>2241</v>
       </c>
       <c r="D100" s="61" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="E100" s="60">
         <v>993</v>
@@ -10134,10 +10023,10 @@
         <v>196</v>
       </c>
       <c r="G100" s="61" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="H100" s="61" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="I100" s="60">
         <v>1</v>
@@ -10164,7 +10053,7 @@
         <v>0</v>
       </c>
       <c r="Q100" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R100" s="62">
         <v>39023</v>
@@ -10196,7 +10085,7 @@
         <v>2241</v>
       </c>
       <c r="D101" s="61" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="E101" s="60">
         <v>993</v>
@@ -10205,10 +10094,10 @@
         <v>196</v>
       </c>
       <c r="G101" s="61" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="H101" s="61" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="I101" s="60">
         <v>1</v>
@@ -10235,7 +10124,7 @@
         <v>0</v>
       </c>
       <c r="Q101" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R101" s="62">
         <v>39023</v>
@@ -10267,7 +10156,7 @@
         <v>2241</v>
       </c>
       <c r="D102" s="61" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="E102" s="60">
         <v>993</v>
@@ -10276,10 +10165,10 @@
         <v>196</v>
       </c>
       <c r="G102" s="61" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="H102" s="61" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="I102" s="60">
         <v>1</v>
@@ -10306,7 +10195,7 @@
         <v>0</v>
       </c>
       <c r="Q102" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R102" s="62">
         <v>39023</v>
@@ -10338,7 +10227,7 @@
         <v>2241</v>
       </c>
       <c r="D103" s="61" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="E103" s="60">
         <v>993</v>
@@ -10347,10 +10236,10 @@
         <v>196</v>
       </c>
       <c r="G103" s="61" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="H103" s="61" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="I103" s="60">
         <v>1</v>
@@ -10377,7 +10266,7 @@
         <v>0</v>
       </c>
       <c r="Q103" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R103" s="62">
         <v>39023</v>
@@ -10409,7 +10298,7 @@
         <v>2241</v>
       </c>
       <c r="D104" s="61" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="E104" s="60">
         <v>993</v>
@@ -10418,10 +10307,10 @@
         <v>196</v>
       </c>
       <c r="G104" s="61" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="H104" s="61" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="I104" s="60">
         <v>1</v>
@@ -10448,7 +10337,7 @@
         <v>0</v>
       </c>
       <c r="Q104" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R104" s="62">
         <v>39023</v>
@@ -10480,7 +10369,7 @@
         <v>2241</v>
       </c>
       <c r="D105" s="61" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="E105" s="60">
         <v>993</v>
@@ -10489,10 +10378,10 @@
         <v>196</v>
       </c>
       <c r="G105" s="61" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="H105" s="61" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="I105" s="60">
         <v>1</v>
@@ -10519,7 +10408,7 @@
         <v>0</v>
       </c>
       <c r="Q105" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R105" s="62">
         <v>39023</v>
@@ -10551,7 +10440,7 @@
         <v>2241</v>
       </c>
       <c r="D106" s="61" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="E106" s="60">
         <v>993</v>
@@ -10560,10 +10449,10 @@
         <v>196</v>
       </c>
       <c r="G106" s="61" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="H106" s="61" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="I106" s="60">
         <v>1</v>
@@ -10590,7 +10479,7 @@
         <v>0</v>
       </c>
       <c r="Q106" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R106" s="62">
         <v>39023</v>
@@ -10622,7 +10511,7 @@
         <v>2241</v>
       </c>
       <c r="D107" s="61" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="E107" s="60">
         <v>993</v>
@@ -10631,10 +10520,10 @@
         <v>196</v>
       </c>
       <c r="G107" s="61" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="H107" s="61" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="I107" s="60">
         <v>1</v>
@@ -10661,7 +10550,7 @@
         <v>0</v>
       </c>
       <c r="Q107" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R107" s="62">
         <v>39023</v>
@@ -10693,7 +10582,7 @@
         <v>2241</v>
       </c>
       <c r="D108" s="61" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="E108" s="60">
         <v>993</v>
@@ -10702,10 +10591,10 @@
         <v>196</v>
       </c>
       <c r="G108" s="61" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="H108" s="61" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="I108" s="60">
         <v>1</v>
@@ -10732,7 +10621,7 @@
         <v>0</v>
       </c>
       <c r="Q108" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R108" s="62">
         <v>39023</v>
@@ -10764,7 +10653,7 @@
         <v>2241</v>
       </c>
       <c r="D109" s="61" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E109" s="60">
         <v>993</v>
@@ -10773,10 +10662,10 @@
         <v>196</v>
       </c>
       <c r="G109" s="61" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="H109" s="61" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="I109" s="60">
         <v>1</v>
@@ -10803,7 +10692,7 @@
         <v>0</v>
       </c>
       <c r="Q109" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R109" s="62">
         <v>39023</v>
@@ -10835,7 +10724,7 @@
         <v>2241</v>
       </c>
       <c r="D110" s="61" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="E110" s="60">
         <v>993</v>
@@ -10844,10 +10733,10 @@
         <v>196</v>
       </c>
       <c r="G110" s="61" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="H110" s="61" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="I110" s="60">
         <v>1</v>
@@ -10874,7 +10763,7 @@
         <v>0</v>
       </c>
       <c r="Q110" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R110" s="62">
         <v>39023</v>
@@ -10906,7 +10795,7 @@
         <v>2241</v>
       </c>
       <c r="D111" s="61" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="E111" s="60">
         <v>993</v>
@@ -10915,10 +10804,10 @@
         <v>196</v>
       </c>
       <c r="G111" s="61" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="H111" s="61" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="I111" s="60">
         <v>1</v>
@@ -10945,7 +10834,7 @@
         <v>0</v>
       </c>
       <c r="Q111" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R111" s="62">
         <v>39023</v>
@@ -10977,7 +10866,7 @@
         <v>2241</v>
       </c>
       <c r="D112" s="61" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E112" s="60">
         <v>993</v>
@@ -10986,10 +10875,10 @@
         <v>196</v>
       </c>
       <c r="G112" s="61" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="H112" s="61" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="I112" s="60">
         <v>1</v>
@@ -11016,7 +10905,7 @@
         <v>0</v>
       </c>
       <c r="Q112" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R112" s="62">
         <v>39023</v>
@@ -11048,7 +10937,7 @@
         <v>2241</v>
       </c>
       <c r="D113" s="61" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="E113" s="60">
         <v>993</v>
@@ -11057,10 +10946,10 @@
         <v>196</v>
       </c>
       <c r="G113" s="61" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="H113" s="61" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="I113" s="60">
         <v>1</v>
@@ -11087,7 +10976,7 @@
         <v>0</v>
       </c>
       <c r="Q113" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R113" s="62">
         <v>39023</v>
@@ -11119,7 +11008,7 @@
         <v>2241</v>
       </c>
       <c r="D114" s="61" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="E114" s="60">
         <v>993</v>
@@ -11128,10 +11017,10 @@
         <v>196</v>
       </c>
       <c r="G114" s="61" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="H114" s="61" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="I114" s="60">
         <v>1</v>
@@ -11158,7 +11047,7 @@
         <v>0</v>
       </c>
       <c r="Q114" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R114" s="62">
         <v>39023</v>
@@ -11190,7 +11079,7 @@
         <v>2241</v>
       </c>
       <c r="D115" s="61" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E115" s="60">
         <v>993</v>
@@ -11199,10 +11088,10 @@
         <v>196</v>
       </c>
       <c r="G115" s="61" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="H115" s="61" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="I115" s="60">
         <v>1</v>
@@ -11229,7 +11118,7 @@
         <v>0</v>
       </c>
       <c r="Q115" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R115" s="62">
         <v>39462</v>
@@ -11261,7 +11150,7 @@
         <v>2241</v>
       </c>
       <c r="D116" s="61" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="E116" s="60">
         <v>993</v>
@@ -11270,10 +11159,10 @@
         <v>196</v>
       </c>
       <c r="G116" s="61" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="H116" s="61" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="I116" s="60">
         <v>1</v>
@@ -11300,7 +11189,7 @@
         <v>0</v>
       </c>
       <c r="Q116" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R116" s="62">
         <v>39520</v>
@@ -11332,7 +11221,7 @@
         <v>2241</v>
       </c>
       <c r="D117" s="61" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E117" s="60">
         <v>993</v>
@@ -11341,10 +11230,10 @@
         <v>196</v>
       </c>
       <c r="G117" s="61" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="H117" s="61" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="I117" s="60">
         <v>1</v>
@@ -11371,7 +11260,7 @@
         <v>0</v>
       </c>
       <c r="Q117" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R117" s="62">
         <v>40268</v>
@@ -11403,7 +11292,7 @@
         <v>2241</v>
       </c>
       <c r="D118" s="61" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="E118" s="60">
         <v>993</v>
@@ -11412,10 +11301,10 @@
         <v>196</v>
       </c>
       <c r="G118" s="61" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="H118" s="61" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="I118" s="60">
         <v>1</v>
@@ -11442,7 +11331,7 @@
         <v>0</v>
       </c>
       <c r="Q118" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R118" s="62">
         <v>41540</v>
@@ -11474,7 +11363,7 @@
         <v>2241</v>
       </c>
       <c r="D119" s="61" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="E119" s="60">
         <v>993</v>
@@ -11483,10 +11372,10 @@
         <v>196</v>
       </c>
       <c r="G119" s="61" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="H119" s="61" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="I119" s="60">
         <v>1</v>
@@ -11513,7 +11402,7 @@
         <v>0</v>
       </c>
       <c r="Q119" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R119" s="62">
         <v>39023</v>
@@ -11545,7 +11434,7 @@
         <v>2241</v>
       </c>
       <c r="D120" s="61" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="E120" s="60">
         <v>993</v>
@@ -11554,10 +11443,10 @@
         <v>196</v>
       </c>
       <c r="G120" s="61" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="H120" s="61" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="I120" s="60">
         <v>1</v>
@@ -11584,7 +11473,7 @@
         <v>0</v>
       </c>
       <c r="Q120" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R120" s="62">
         <v>39000</v>
@@ -11616,7 +11505,7 @@
         <v>2241</v>
       </c>
       <c r="D121" s="61" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E121" s="60">
         <v>993</v>
@@ -11625,10 +11514,10 @@
         <v>196</v>
       </c>
       <c r="G121" s="61" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="H121" s="61" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="I121" s="60">
         <v>1</v>
@@ -11655,7 +11544,7 @@
         <v>0</v>
       </c>
       <c r="Q121" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R121" s="62">
         <v>39000</v>
@@ -11687,7 +11576,7 @@
         <v>2242</v>
       </c>
       <c r="D122" s="61" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E122" s="60">
         <v>283</v>
@@ -11696,10 +11585,10 @@
         <v>197</v>
       </c>
       <c r="G122" s="61" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="H122" s="61" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="I122" s="60">
         <v>1</v>
@@ -11726,7 +11615,7 @@
         <v>0</v>
       </c>
       <c r="Q122" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R122" s="62">
         <v>39114</v>
@@ -11758,7 +11647,7 @@
         <v>2242</v>
       </c>
       <c r="D123" s="61" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E123" s="60">
         <v>283</v>
@@ -11767,10 +11656,10 @@
         <v>197</v>
       </c>
       <c r="G123" s="61" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="H123" s="61" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="I123" s="60">
         <v>1</v>
@@ -11797,7 +11686,7 @@
         <v>0</v>
       </c>
       <c r="Q123" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R123" s="62">
         <v>39114</v>
@@ -11829,7 +11718,7 @@
         <v>2242</v>
       </c>
       <c r="D124" s="61" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="E124" s="60">
         <v>283</v>
@@ -11838,10 +11727,10 @@
         <v>197</v>
       </c>
       <c r="G124" s="61" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="H124" s="61" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="I124" s="60">
         <v>1</v>
@@ -11868,7 +11757,7 @@
         <v>0</v>
       </c>
       <c r="Q124" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R124" s="62">
         <v>39114</v>
@@ -11900,7 +11789,7 @@
         <v>2242</v>
       </c>
       <c r="D125" s="61" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E125" s="60">
         <v>283</v>
@@ -11909,10 +11798,10 @@
         <v>197</v>
       </c>
       <c r="G125" s="61" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="H125" s="61" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="I125" s="60">
         <v>1</v>
@@ -11939,7 +11828,7 @@
         <v>0</v>
       </c>
       <c r="Q125" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R125" s="62">
         <v>39114</v>
@@ -11971,7 +11860,7 @@
         <v>2242</v>
       </c>
       <c r="D126" s="61" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E126" s="60">
         <v>283</v>
@@ -11980,10 +11869,10 @@
         <v>197</v>
       </c>
       <c r="G126" s="61" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="H126" s="61" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="I126" s="60">
         <v>1</v>
@@ -12010,7 +11899,7 @@
         <v>0</v>
       </c>
       <c r="Q126" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R126" s="62">
         <v>39114</v>
@@ -12042,7 +11931,7 @@
         <v>2242</v>
       </c>
       <c r="D127" s="61" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="E127" s="60">
         <v>283</v>
@@ -12051,10 +11940,10 @@
         <v>197</v>
       </c>
       <c r="G127" s="61" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="H127" s="61" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="I127" s="60">
         <v>1</v>
@@ -12081,7 +11970,7 @@
         <v>0</v>
       </c>
       <c r="Q127" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R127" s="62">
         <v>39462</v>
@@ -12113,7 +12002,7 @@
         <v>2242</v>
       </c>
       <c r="D128" s="61" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="E128" s="60">
         <v>283</v>
@@ -12122,10 +12011,10 @@
         <v>197</v>
       </c>
       <c r="G128" s="61" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="H128" s="61" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="I128" s="60">
         <v>1</v>
@@ -12152,7 +12041,7 @@
         <v>0</v>
       </c>
       <c r="Q128" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R128" s="62">
         <v>39521</v>
@@ -12184,7 +12073,7 @@
         <v>2242</v>
       </c>
       <c r="D129" s="61" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="E129" s="60">
         <v>283</v>
@@ -12193,10 +12082,10 @@
         <v>197</v>
       </c>
       <c r="G129" s="61" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="H129" s="61" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="I129" s="60">
         <v>1</v>
@@ -12223,7 +12112,7 @@
         <v>0</v>
       </c>
       <c r="Q129" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R129" s="62">
         <v>40268</v>
@@ -12255,7 +12144,7 @@
         <v>2242</v>
       </c>
       <c r="D130" s="61" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="E130" s="60">
         <v>283</v>
@@ -12264,10 +12153,10 @@
         <v>197</v>
       </c>
       <c r="G130" s="61" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="H130" s="61" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="I130" s="60">
         <v>1</v>
@@ -12294,7 +12183,7 @@
         <v>0</v>
       </c>
       <c r="Q130" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R130" s="62">
         <v>41537</v>
@@ -12326,7 +12215,7 @@
         <v>2242</v>
       </c>
       <c r="D131" s="61" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="E131" s="60">
         <v>283</v>
@@ -12335,10 +12224,10 @@
         <v>197</v>
       </c>
       <c r="G131" s="61" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="H131" s="61" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="I131" s="60">
         <v>1</v>
@@ -12365,7 +12254,7 @@
         <v>0</v>
       </c>
       <c r="Q131" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R131" s="62">
         <v>39114</v>
@@ -12397,7 +12286,7 @@
         <v>2242</v>
       </c>
       <c r="D132" s="61" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E132" s="60">
         <v>283</v>
@@ -12406,10 +12295,10 @@
         <v>197</v>
       </c>
       <c r="G132" s="61" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="H132" s="61" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="I132" s="60">
         <v>1</v>
@@ -12436,7 +12325,7 @@
         <v>0</v>
       </c>
       <c r="Q132" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R132" s="62">
         <v>39000</v>
@@ -12468,7 +12357,7 @@
         <v>2242</v>
       </c>
       <c r="D133" s="61" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E133" s="60">
         <v>993</v>
@@ -12477,10 +12366,10 @@
         <v>197</v>
       </c>
       <c r="G133" s="61" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="H133" s="61" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="I133" s="60">
         <v>1</v>
@@ -12507,7 +12396,7 @@
         <v>0</v>
       </c>
       <c r="Q133" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R133" s="62">
         <v>39114</v>
@@ -12539,7 +12428,7 @@
         <v>2242</v>
       </c>
       <c r="D134" s="61" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E134" s="60">
         <v>993</v>
@@ -12548,10 +12437,10 @@
         <v>197</v>
       </c>
       <c r="G134" s="61" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="H134" s="61" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="I134" s="60">
         <v>1</v>
@@ -12578,7 +12467,7 @@
         <v>0</v>
       </c>
       <c r="Q134" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R134" s="62">
         <v>39114</v>
@@ -12610,7 +12499,7 @@
         <v>2242</v>
       </c>
       <c r="D135" s="61" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E135" s="60">
         <v>993</v>
@@ -12619,10 +12508,10 @@
         <v>197</v>
       </c>
       <c r="G135" s="61" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="H135" s="61" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="I135" s="60">
         <v>1</v>
@@ -12649,7 +12538,7 @@
         <v>0</v>
       </c>
       <c r="Q135" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R135" s="62">
         <v>39114</v>
@@ -12681,7 +12570,7 @@
         <v>2242</v>
       </c>
       <c r="D136" s="61" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="E136" s="60">
         <v>993</v>
@@ -12690,10 +12579,10 @@
         <v>197</v>
       </c>
       <c r="G136" s="61" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="H136" s="61" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="I136" s="60">
         <v>1</v>
@@ -12720,7 +12609,7 @@
         <v>0</v>
       </c>
       <c r="Q136" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R136" s="62">
         <v>39114</v>
@@ -12752,7 +12641,7 @@
         <v>2242</v>
       </c>
       <c r="D137" s="61" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="E137" s="60">
         <v>993</v>
@@ -12761,10 +12650,10 @@
         <v>197</v>
       </c>
       <c r="G137" s="61" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="H137" s="61" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="I137" s="60">
         <v>1</v>
@@ -12791,7 +12680,7 @@
         <v>0</v>
       </c>
       <c r="Q137" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R137" s="62">
         <v>39114</v>
@@ -12823,7 +12712,7 @@
         <v>2242</v>
       </c>
       <c r="D138" s="61" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="E138" s="60">
         <v>993</v>
@@ -12832,10 +12721,10 @@
         <v>197</v>
       </c>
       <c r="G138" s="61" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="H138" s="61" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="I138" s="60">
         <v>1</v>
@@ -12862,7 +12751,7 @@
         <v>0</v>
       </c>
       <c r="Q138" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R138" s="62">
         <v>39114</v>
@@ -12894,7 +12783,7 @@
         <v>2242</v>
       </c>
       <c r="D139" s="61" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="E139" s="60">
         <v>993</v>
@@ -12903,10 +12792,10 @@
         <v>197</v>
       </c>
       <c r="G139" s="61" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="H139" s="61" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="I139" s="60">
         <v>1</v>
@@ -12933,7 +12822,7 @@
         <v>0</v>
       </c>
       <c r="Q139" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R139" s="62">
         <v>39114</v>
@@ -12965,7 +12854,7 @@
         <v>2242</v>
       </c>
       <c r="D140" s="61" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="E140" s="60">
         <v>993</v>
@@ -12974,10 +12863,10 @@
         <v>197</v>
       </c>
       <c r="G140" s="61" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="H140" s="61" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="I140" s="60">
         <v>1</v>
@@ -13004,7 +12893,7 @@
         <v>0</v>
       </c>
       <c r="Q140" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R140" s="62">
         <v>39114</v>
@@ -13036,7 +12925,7 @@
         <v>2242</v>
       </c>
       <c r="D141" s="61" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="E141" s="60">
         <v>993</v>
@@ -13045,10 +12934,10 @@
         <v>197</v>
       </c>
       <c r="G141" s="61" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="H141" s="61" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="I141" s="60">
         <v>1</v>
@@ -13075,7 +12964,7 @@
         <v>0</v>
       </c>
       <c r="Q141" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R141" s="62">
         <v>39114</v>
@@ -13107,7 +12996,7 @@
         <v>2242</v>
       </c>
       <c r="D142" s="61" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="E142" s="60">
         <v>993</v>
@@ -13116,10 +13005,10 @@
         <v>197</v>
       </c>
       <c r="G142" s="61" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="H142" s="61" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="I142" s="60">
         <v>1</v>
@@ -13146,7 +13035,7 @@
         <v>0</v>
       </c>
       <c r="Q142" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R142" s="62">
         <v>39114</v>
@@ -13178,7 +13067,7 @@
         <v>2242</v>
       </c>
       <c r="D143" s="61" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="E143" s="60">
         <v>993</v>
@@ -13187,10 +13076,10 @@
         <v>197</v>
       </c>
       <c r="G143" s="61" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="H143" s="61" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="I143" s="60">
         <v>1</v>
@@ -13217,7 +13106,7 @@
         <v>0</v>
       </c>
       <c r="Q143" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R143" s="62">
         <v>39114</v>
@@ -13249,7 +13138,7 @@
         <v>2242</v>
       </c>
       <c r="D144" s="61" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="E144" s="60">
         <v>993</v>
@@ -13258,10 +13147,10 @@
         <v>197</v>
       </c>
       <c r="G144" s="61" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="H144" s="61" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="I144" s="60">
         <v>1</v>
@@ -13288,7 +13177,7 @@
         <v>0</v>
       </c>
       <c r="Q144" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R144" s="62">
         <v>39114</v>
@@ -13320,7 +13209,7 @@
         <v>2242</v>
       </c>
       <c r="D145" s="61" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E145" s="60">
         <v>993</v>
@@ -13329,10 +13218,10 @@
         <v>197</v>
       </c>
       <c r="G145" s="61" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="H145" s="61" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="I145" s="60">
         <v>1</v>
@@ -13359,7 +13248,7 @@
         <v>0</v>
       </c>
       <c r="Q145" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R145" s="62">
         <v>39114</v>
@@ -13391,7 +13280,7 @@
         <v>2242</v>
       </c>
       <c r="D146" s="61" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="E146" s="60">
         <v>993</v>
@@ -13400,10 +13289,10 @@
         <v>197</v>
       </c>
       <c r="G146" s="61" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="H146" s="61" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="I146" s="60">
         <v>1</v>
@@ -13430,7 +13319,7 @@
         <v>0</v>
       </c>
       <c r="Q146" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R146" s="62">
         <v>39114</v>
@@ -13462,7 +13351,7 @@
         <v>2242</v>
       </c>
       <c r="D147" s="61" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="E147" s="60">
         <v>993</v>
@@ -13471,10 +13360,10 @@
         <v>197</v>
       </c>
       <c r="G147" s="61" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="H147" s="61" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="I147" s="60">
         <v>1</v>
@@ -13501,7 +13390,7 @@
         <v>0</v>
       </c>
       <c r="Q147" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R147" s="62">
         <v>39114</v>
@@ -13533,7 +13422,7 @@
         <v>2242</v>
       </c>
       <c r="D148" s="61" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E148" s="60">
         <v>993</v>
@@ -13542,10 +13431,10 @@
         <v>197</v>
       </c>
       <c r="G148" s="61" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="H148" s="61" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="I148" s="60">
         <v>1</v>
@@ -13572,7 +13461,7 @@
         <v>0</v>
       </c>
       <c r="Q148" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R148" s="62">
         <v>39114</v>
@@ -13604,7 +13493,7 @@
         <v>2242</v>
       </c>
       <c r="D149" s="61" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="E149" s="60">
         <v>993</v>
@@ -13613,10 +13502,10 @@
         <v>197</v>
       </c>
       <c r="G149" s="61" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="H149" s="61" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="I149" s="60">
         <v>1</v>
@@ -13643,7 +13532,7 @@
         <v>0</v>
       </c>
       <c r="Q149" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R149" s="62">
         <v>39114</v>
@@ -13675,7 +13564,7 @@
         <v>2242</v>
       </c>
       <c r="D150" s="61" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="E150" s="60">
         <v>993</v>
@@ -13684,10 +13573,10 @@
         <v>197</v>
       </c>
       <c r="G150" s="61" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="H150" s="61" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="I150" s="60">
         <v>1</v>
@@ -13714,7 +13603,7 @@
         <v>0</v>
       </c>
       <c r="Q150" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R150" s="62">
         <v>39114</v>
@@ -13746,7 +13635,7 @@
         <v>2242</v>
       </c>
       <c r="D151" s="61" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E151" s="60">
         <v>993</v>
@@ -13755,10 +13644,10 @@
         <v>197</v>
       </c>
       <c r="G151" s="61" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="H151" s="61" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="I151" s="60">
         <v>1</v>
@@ -13785,7 +13674,7 @@
         <v>0</v>
       </c>
       <c r="Q151" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R151" s="62">
         <v>39462</v>
@@ -13817,7 +13706,7 @@
         <v>2242</v>
       </c>
       <c r="D152" s="61" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="E152" s="60">
         <v>993</v>
@@ -13826,10 +13715,10 @@
         <v>197</v>
       </c>
       <c r="G152" s="61" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="H152" s="61" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="I152" s="60">
         <v>1</v>
@@ -13856,7 +13745,7 @@
         <v>0</v>
       </c>
       <c r="Q152" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R152" s="62">
         <v>39520</v>
@@ -13888,7 +13777,7 @@
         <v>2242</v>
       </c>
       <c r="D153" s="61" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E153" s="60">
         <v>993</v>
@@ -13897,10 +13786,10 @@
         <v>197</v>
       </c>
       <c r="G153" s="61" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="H153" s="61" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="I153" s="60">
         <v>1</v>
@@ -13927,7 +13816,7 @@
         <v>0</v>
       </c>
       <c r="Q153" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R153" s="62">
         <v>40268</v>
@@ -13959,7 +13848,7 @@
         <v>2242</v>
       </c>
       <c r="D154" s="61" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="E154" s="60">
         <v>993</v>
@@ -13968,10 +13857,10 @@
         <v>197</v>
       </c>
       <c r="G154" s="61" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="H154" s="61" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="I154" s="60">
         <v>1</v>
@@ -13998,7 +13887,7 @@
         <v>0</v>
       </c>
       <c r="Q154" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R154" s="62">
         <v>41543</v>
@@ -14030,7 +13919,7 @@
         <v>2242</v>
       </c>
       <c r="D155" s="61" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="E155" s="60">
         <v>993</v>
@@ -14039,10 +13928,10 @@
         <v>197</v>
       </c>
       <c r="G155" s="61" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="H155" s="61" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="I155" s="60">
         <v>1</v>
@@ -14069,7 +13958,7 @@
         <v>0</v>
       </c>
       <c r="Q155" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R155" s="62">
         <v>39114</v>
@@ -14101,7 +13990,7 @@
         <v>2242</v>
       </c>
       <c r="D156" s="61" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="E156" s="60">
         <v>993</v>
@@ -14110,10 +13999,10 @@
         <v>197</v>
       </c>
       <c r="G156" s="61" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="H156" s="61" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="I156" s="60">
         <v>1</v>
@@ -14140,7 +14029,7 @@
         <v>0</v>
       </c>
       <c r="Q156" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R156" s="62">
         <v>39000</v>
@@ -14172,7 +14061,7 @@
         <v>2242</v>
       </c>
       <c r="D157" s="61" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E157" s="60">
         <v>993</v>
@@ -14181,10 +14070,10 @@
         <v>197</v>
       </c>
       <c r="G157" s="61" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="H157" s="61" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="I157" s="60">
         <v>1</v>
@@ -14211,7 +14100,7 @@
         <v>0</v>
       </c>
       <c r="Q157" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R157" s="62">
         <v>39000</v>
@@ -14243,7 +14132,7 @@
         <v>2243</v>
       </c>
       <c r="D158" s="61" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E158" s="60">
         <v>283</v>
@@ -14252,10 +14141,10 @@
         <v>198</v>
       </c>
       <c r="G158" s="61" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="H158" s="61" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="I158" s="60">
         <v>1</v>
@@ -14282,7 +14171,7 @@
         <v>0</v>
       </c>
       <c r="Q158" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R158" s="62">
         <v>39023</v>
@@ -14314,7 +14203,7 @@
         <v>2243</v>
       </c>
       <c r="D159" s="61" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E159" s="60">
         <v>283</v>
@@ -14323,10 +14212,10 @@
         <v>198</v>
       </c>
       <c r="G159" s="61" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="H159" s="61" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="I159" s="60">
         <v>1</v>
@@ -14353,7 +14242,7 @@
         <v>0</v>
       </c>
       <c r="Q159" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R159" s="62">
         <v>39023</v>
@@ -14385,7 +14274,7 @@
         <v>2243</v>
       </c>
       <c r="D160" s="61" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="E160" s="60">
         <v>283</v>
@@ -14394,10 +14283,10 @@
         <v>198</v>
       </c>
       <c r="G160" s="61" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="H160" s="61" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="I160" s="60">
         <v>1</v>
@@ -14424,7 +14313,7 @@
         <v>0</v>
       </c>
       <c r="Q160" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R160" s="62">
         <v>39023</v>
@@ -14456,7 +14345,7 @@
         <v>2243</v>
       </c>
       <c r="D161" s="61" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E161" s="60">
         <v>283</v>
@@ -14465,10 +14354,10 @@
         <v>198</v>
       </c>
       <c r="G161" s="61" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="H161" s="61" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="I161" s="60">
         <v>1</v>
@@ -14495,7 +14384,7 @@
         <v>0</v>
       </c>
       <c r="Q161" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R161" s="62">
         <v>39023</v>
@@ -14527,7 +14416,7 @@
         <v>2243</v>
       </c>
       <c r="D162" s="61" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E162" s="60">
         <v>283</v>
@@ -14536,10 +14425,10 @@
         <v>198</v>
       </c>
       <c r="G162" s="61" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="H162" s="61" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="I162" s="60">
         <v>1</v>
@@ -14566,7 +14455,7 @@
         <v>0</v>
       </c>
       <c r="Q162" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R162" s="62">
         <v>39023</v>
@@ -14598,7 +14487,7 @@
         <v>2243</v>
       </c>
       <c r="D163" s="61" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="E163" s="60">
         <v>283</v>
@@ -14607,10 +14496,10 @@
         <v>198</v>
       </c>
       <c r="G163" s="61" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="H163" s="61" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="I163" s="60">
         <v>1</v>
@@ -14637,7 +14526,7 @@
         <v>0</v>
       </c>
       <c r="Q163" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R163" s="62">
         <v>39462</v>
@@ -14669,7 +14558,7 @@
         <v>2243</v>
       </c>
       <c r="D164" s="61" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="E164" s="60">
         <v>283</v>
@@ -14678,10 +14567,10 @@
         <v>198</v>
       </c>
       <c r="G164" s="61" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="H164" s="61" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="I164" s="60">
         <v>1</v>
@@ -14708,7 +14597,7 @@
         <v>0</v>
       </c>
       <c r="Q164" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R164" s="62">
         <v>39521</v>
@@ -14740,7 +14629,7 @@
         <v>2243</v>
       </c>
       <c r="D165" s="61" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="E165" s="60">
         <v>283</v>
@@ -14749,10 +14638,10 @@
         <v>198</v>
       </c>
       <c r="G165" s="61" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="H165" s="61" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="I165" s="60">
         <v>1</v>
@@ -14779,7 +14668,7 @@
         <v>0</v>
       </c>
       <c r="Q165" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R165" s="62">
         <v>40268</v>
@@ -14811,7 +14700,7 @@
         <v>2243</v>
       </c>
       <c r="D166" s="61" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="E166" s="60">
         <v>283</v>
@@ -14820,10 +14709,10 @@
         <v>198</v>
       </c>
       <c r="G166" s="61" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="H166" s="61" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="I166" s="60">
         <v>1</v>
@@ -14850,7 +14739,7 @@
         <v>0</v>
       </c>
       <c r="Q166" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R166" s="62">
         <v>41537</v>
@@ -14882,7 +14771,7 @@
         <v>2243</v>
       </c>
       <c r="D167" s="61" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="E167" s="60">
         <v>283</v>
@@ -14891,10 +14780,10 @@
         <v>198</v>
       </c>
       <c r="G167" s="61" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="H167" s="61" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="I167" s="60">
         <v>1</v>
@@ -14921,7 +14810,7 @@
         <v>0</v>
       </c>
       <c r="Q167" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R167" s="62">
         <v>39023</v>
@@ -14953,7 +14842,7 @@
         <v>2243</v>
       </c>
       <c r="D168" s="61" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E168" s="60">
         <v>283</v>
@@ -14962,10 +14851,10 @@
         <v>198</v>
       </c>
       <c r="G168" s="61" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="H168" s="61" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="I168" s="60">
         <v>1</v>
@@ -14992,7 +14881,7 @@
         <v>0</v>
       </c>
       <c r="Q168" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R168" s="62">
         <v>39000</v>
@@ -15024,7 +14913,7 @@
         <v>2243</v>
       </c>
       <c r="D169" s="61" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E169" s="60">
         <v>993</v>
@@ -15033,10 +14922,10 @@
         <v>198</v>
       </c>
       <c r="G169" s="61" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="H169" s="61" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="I169" s="60">
         <v>1</v>
@@ -15063,7 +14952,7 @@
         <v>0</v>
       </c>
       <c r="Q169" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R169" s="62">
         <v>39023</v>
@@ -15095,7 +14984,7 @@
         <v>2243</v>
       </c>
       <c r="D170" s="61" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E170" s="60">
         <v>993</v>
@@ -15104,10 +14993,10 @@
         <v>198</v>
       </c>
       <c r="G170" s="61" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="H170" s="61" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="I170" s="60">
         <v>1</v>
@@ -15134,7 +15023,7 @@
         <v>0</v>
       </c>
       <c r="Q170" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R170" s="62">
         <v>39023</v>
@@ -15166,7 +15055,7 @@
         <v>2243</v>
       </c>
       <c r="D171" s="61" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E171" s="60">
         <v>993</v>
@@ -15175,10 +15064,10 @@
         <v>198</v>
       </c>
       <c r="G171" s="61" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="H171" s="61" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="I171" s="60">
         <v>1</v>
@@ -15205,7 +15094,7 @@
         <v>0</v>
       </c>
       <c r="Q171" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R171" s="62">
         <v>39023</v>
@@ -15237,7 +15126,7 @@
         <v>2243</v>
       </c>
       <c r="D172" s="61" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="E172" s="60">
         <v>993</v>
@@ -15246,10 +15135,10 @@
         <v>198</v>
       </c>
       <c r="G172" s="61" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="H172" s="61" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="I172" s="60">
         <v>1</v>
@@ -15276,7 +15165,7 @@
         <v>0</v>
       </c>
       <c r="Q172" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R172" s="62">
         <v>39023</v>
@@ -15308,7 +15197,7 @@
         <v>2243</v>
       </c>
       <c r="D173" s="61" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="E173" s="60">
         <v>993</v>
@@ -15317,10 +15206,10 @@
         <v>198</v>
       </c>
       <c r="G173" s="61" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="H173" s="61" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="I173" s="60">
         <v>1</v>
@@ -15347,7 +15236,7 @@
         <v>0</v>
       </c>
       <c r="Q173" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R173" s="62">
         <v>39023</v>
@@ -15379,7 +15268,7 @@
         <v>2243</v>
       </c>
       <c r="D174" s="61" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="E174" s="60">
         <v>993</v>
@@ -15388,10 +15277,10 @@
         <v>198</v>
       </c>
       <c r="G174" s="61" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="H174" s="61" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="I174" s="60">
         <v>1</v>
@@ -15418,7 +15307,7 @@
         <v>0</v>
       </c>
       <c r="Q174" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R174" s="62">
         <v>39023</v>
@@ -15450,7 +15339,7 @@
         <v>2243</v>
       </c>
       <c r="D175" s="61" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="E175" s="60">
         <v>993</v>
@@ -15459,10 +15348,10 @@
         <v>198</v>
       </c>
       <c r="G175" s="61" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="H175" s="61" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="I175" s="60">
         <v>1</v>
@@ -15489,7 +15378,7 @@
         <v>0</v>
       </c>
       <c r="Q175" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R175" s="62">
         <v>39023</v>
@@ -15521,7 +15410,7 @@
         <v>2243</v>
       </c>
       <c r="D176" s="61" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="E176" s="60">
         <v>993</v>
@@ -15530,10 +15419,10 @@
         <v>198</v>
       </c>
       <c r="G176" s="61" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="H176" s="61" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="I176" s="60">
         <v>1</v>
@@ -15560,7 +15449,7 @@
         <v>0</v>
       </c>
       <c r="Q176" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R176" s="62">
         <v>39023</v>
@@ -15592,7 +15481,7 @@
         <v>2243</v>
       </c>
       <c r="D177" s="61" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="E177" s="60">
         <v>993</v>
@@ -15601,10 +15490,10 @@
         <v>198</v>
       </c>
       <c r="G177" s="61" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="H177" s="61" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="I177" s="60">
         <v>1</v>
@@ -15631,7 +15520,7 @@
         <v>0</v>
       </c>
       <c r="Q177" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R177" s="62">
         <v>39023</v>
@@ -15663,7 +15552,7 @@
         <v>2243</v>
       </c>
       <c r="D178" s="61" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="E178" s="60">
         <v>993</v>
@@ -15672,10 +15561,10 @@
         <v>198</v>
       </c>
       <c r="G178" s="61" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="H178" s="61" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="I178" s="60">
         <v>1</v>
@@ -15702,7 +15591,7 @@
         <v>0</v>
       </c>
       <c r="Q178" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R178" s="62">
         <v>39023</v>
@@ -15734,7 +15623,7 @@
         <v>2243</v>
       </c>
       <c r="D179" s="61" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="E179" s="60">
         <v>993</v>
@@ -15743,10 +15632,10 @@
         <v>198</v>
       </c>
       <c r="G179" s="61" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="H179" s="61" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="I179" s="60">
         <v>1</v>
@@ -15773,7 +15662,7 @@
         <v>0</v>
       </c>
       <c r="Q179" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R179" s="62">
         <v>39023</v>
@@ -15805,7 +15694,7 @@
         <v>2243</v>
       </c>
       <c r="D180" s="61" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="E180" s="60">
         <v>993</v>
@@ -15814,10 +15703,10 @@
         <v>198</v>
       </c>
       <c r="G180" s="61" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="H180" s="61" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="I180" s="60">
         <v>1</v>
@@ -15844,7 +15733,7 @@
         <v>0</v>
       </c>
       <c r="Q180" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R180" s="62">
         <v>39023</v>
@@ -15876,7 +15765,7 @@
         <v>2243</v>
       </c>
       <c r="D181" s="61" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E181" s="60">
         <v>993</v>
@@ -15885,10 +15774,10 @@
         <v>198</v>
       </c>
       <c r="G181" s="61" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="H181" s="61" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="I181" s="60">
         <v>1</v>
@@ -15915,7 +15804,7 @@
         <v>0</v>
       </c>
       <c r="Q181" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R181" s="62">
         <v>39023</v>
@@ -15947,7 +15836,7 @@
         <v>2243</v>
       </c>
       <c r="D182" s="61" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="E182" s="60">
         <v>993</v>
@@ -15956,10 +15845,10 @@
         <v>198</v>
       </c>
       <c r="G182" s="61" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="H182" s="61" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="I182" s="60">
         <v>1</v>
@@ -15986,7 +15875,7 @@
         <v>0</v>
       </c>
       <c r="Q182" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R182" s="62">
         <v>39023</v>
@@ -16018,7 +15907,7 @@
         <v>2243</v>
       </c>
       <c r="D183" s="61" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="E183" s="60">
         <v>993</v>
@@ -16027,10 +15916,10 @@
         <v>198</v>
       </c>
       <c r="G183" s="61" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="H183" s="61" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="I183" s="60">
         <v>1</v>
@@ -16057,7 +15946,7 @@
         <v>0</v>
       </c>
       <c r="Q183" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R183" s="62">
         <v>39023</v>
@@ -16089,7 +15978,7 @@
         <v>2243</v>
       </c>
       <c r="D184" s="61" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E184" s="60">
         <v>993</v>
@@ -16098,10 +15987,10 @@
         <v>198</v>
       </c>
       <c r="G184" s="61" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="H184" s="61" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="I184" s="60">
         <v>1</v>
@@ -16128,7 +16017,7 @@
         <v>0</v>
       </c>
       <c r="Q184" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R184" s="62">
         <v>39023</v>
@@ -16160,7 +16049,7 @@
         <v>2243</v>
       </c>
       <c r="D185" s="61" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="E185" s="60">
         <v>993</v>
@@ -16169,10 +16058,10 @@
         <v>198</v>
       </c>
       <c r="G185" s="61" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="H185" s="61" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="I185" s="60">
         <v>1</v>
@@ -16199,7 +16088,7 @@
         <v>0</v>
       </c>
       <c r="Q185" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R185" s="62">
         <v>39023</v>
@@ -16231,7 +16120,7 @@
         <v>2243</v>
       </c>
       <c r="D186" s="61" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="E186" s="60">
         <v>993</v>
@@ -16240,10 +16129,10 @@
         <v>198</v>
       </c>
       <c r="G186" s="61" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="H186" s="61" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="I186" s="60">
         <v>1</v>
@@ -16270,7 +16159,7 @@
         <v>0</v>
       </c>
       <c r="Q186" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R186" s="62">
         <v>39023</v>
@@ -16302,7 +16191,7 @@
         <v>2243</v>
       </c>
       <c r="D187" s="61" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E187" s="60">
         <v>993</v>
@@ -16311,10 +16200,10 @@
         <v>198</v>
       </c>
       <c r="G187" s="61" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="H187" s="61" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="I187" s="60">
         <v>1</v>
@@ -16341,7 +16230,7 @@
         <v>0</v>
       </c>
       <c r="Q187" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R187" s="62">
         <v>39462</v>
@@ -16373,7 +16262,7 @@
         <v>2243</v>
       </c>
       <c r="D188" s="61" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="E188" s="60">
         <v>993</v>
@@ -16382,10 +16271,10 @@
         <v>198</v>
       </c>
       <c r="G188" s="61" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="H188" s="61" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="I188" s="60">
         <v>1</v>
@@ -16412,7 +16301,7 @@
         <v>0</v>
       </c>
       <c r="Q188" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R188" s="62">
         <v>39520</v>
@@ -16444,7 +16333,7 @@
         <v>2243</v>
       </c>
       <c r="D189" s="61" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E189" s="60">
         <v>993</v>
@@ -16453,10 +16342,10 @@
         <v>198</v>
       </c>
       <c r="G189" s="61" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="H189" s="61" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="I189" s="60">
         <v>1</v>
@@ -16483,7 +16372,7 @@
         <v>0</v>
       </c>
       <c r="Q189" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R189" s="62">
         <v>40268</v>
@@ -16515,7 +16404,7 @@
         <v>2243</v>
       </c>
       <c r="D190" s="61" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="E190" s="60">
         <v>993</v>
@@ -16524,10 +16413,10 @@
         <v>198</v>
       </c>
       <c r="G190" s="61" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="H190" s="61" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="I190" s="60">
         <v>1</v>
@@ -16554,7 +16443,7 @@
         <v>0</v>
       </c>
       <c r="Q190" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R190" s="62">
         <v>41543</v>
@@ -16586,7 +16475,7 @@
         <v>2243</v>
       </c>
       <c r="D191" s="61" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="E191" s="60">
         <v>993</v>
@@ -16595,10 +16484,10 @@
         <v>198</v>
       </c>
       <c r="G191" s="61" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="H191" s="61" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="I191" s="60">
         <v>1</v>
@@ -16625,7 +16514,7 @@
         <v>0</v>
       </c>
       <c r="Q191" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R191" s="62">
         <v>39023</v>
@@ -16657,7 +16546,7 @@
         <v>2243</v>
       </c>
       <c r="D192" s="61" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="E192" s="60">
         <v>993</v>
@@ -16666,10 +16555,10 @@
         <v>198</v>
       </c>
       <c r="G192" s="61" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="H192" s="61" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="I192" s="60">
         <v>1</v>
@@ -16696,7 +16585,7 @@
         <v>0</v>
       </c>
       <c r="Q192" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R192" s="62">
         <v>39000</v>
@@ -16728,7 +16617,7 @@
         <v>2243</v>
       </c>
       <c r="D193" s="61" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E193" s="60">
         <v>993</v>
@@ -16737,10 +16626,10 @@
         <v>198</v>
       </c>
       <c r="G193" s="61" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="H193" s="61" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="I193" s="60">
         <v>1</v>
@@ -16767,7 +16656,7 @@
         <v>0</v>
       </c>
       <c r="Q193" s="61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R193" s="62">
         <v>39000</v>
@@ -16810,7 +16699,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16834,51 +16723,51 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="E1" s="38" t="s">
-        <v>108</v>
-      </c>
-      <c r="F1" s="38" t="s">
-        <v>109</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>111</v>
-      </c>
       <c r="N1" s="22" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="3" customFormat="1" ht="57" x14ac:dyDescent="0.25">
       <c r="A2" s="48" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B2" s="7">
         <v>12</v>
@@ -16888,10 +16777,10 @@
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="28" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="G2" s="57">
         <v>11107</v>
@@ -16900,7 +16789,7 @@
         <v>283</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J2" s="8">
         <v>42901</v>
@@ -16913,12 +16802,12 @@
         <v>0</v>
       </c>
       <c r="N2" s="23" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="3" customFormat="1" ht="57" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B3" s="67">
         <v>12</v>
@@ -16928,10 +16817,10 @@
       </c>
       <c r="D3" s="68"/>
       <c r="E3" s="33" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F3" s="39" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="G3" s="69">
         <v>10000</v>
@@ -16940,7 +16829,7 @@
         <v>993</v>
       </c>
       <c r="I3" s="68" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J3" s="70">
         <v>42901</v>
@@ -16953,12 +16842,12 @@
         <v>0</v>
       </c>
       <c r="N3" s="23" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="3" customFormat="1" ht="68.25" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B4" s="7">
         <v>12</v>
@@ -16968,10 +16857,10 @@
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="28" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="G4" s="57">
         <v>11127</v>
@@ -16980,7 +16869,7 @@
         <v>283</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J4" s="8">
         <v>42901</v>
@@ -16993,7 +16882,7 @@
         <v>0</v>
       </c>
       <c r="N4" s="23" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -17034,48 +16923,48 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="G1" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>113</v>
-      </c>
       <c r="J1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="5" t="s">
-        <v>15</v>
-      </c>
       <c r="L1" s="22" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="2" customFormat="1" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C2" s="7">
         <v>9</v>
@@ -17087,31 +16976,31 @@
         <v>0</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G2" s="28" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="H2" s="28" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J2" s="58">
         <v>42901</v>
       </c>
       <c r="K2" s="16"/>
       <c r="L2" s="23" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="2" customFormat="1" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C3" s="7">
         <v>9</v>
@@ -17123,31 +17012,31 @@
         <v>0</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G3" s="28" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="H3" s="28" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J3" s="58">
         <v>42901</v>
       </c>
       <c r="K3" s="16"/>
       <c r="L3" s="23" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="2" customFormat="1" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C4" s="7">
         <v>9</v>
@@ -17159,31 +17048,31 @@
         <v>0</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J4" s="58">
         <v>42901</v>
       </c>
       <c r="K4" s="16"/>
       <c r="L4" s="23" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="2" customFormat="1" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C5" s="7">
         <v>9</v>
@@ -17195,31 +17084,31 @@
         <v>0</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G5" s="28" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="H5" s="28" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J5" s="58">
         <v>42901</v>
       </c>
       <c r="K5" s="16"/>
       <c r="L5" s="23" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="2" customFormat="1" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C6" s="7">
         <v>9</v>
@@ -17231,31 +17120,31 @@
         <v>0</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G6" s="28" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J6" s="58">
         <v>42901</v>
       </c>
       <c r="K6" s="16"/>
       <c r="L6" s="23" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="2" customFormat="1" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C7" s="7">
         <v>9</v>
@@ -17267,31 +17156,31 @@
         <v>0</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G7" s="28" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J7" s="58">
         <v>42901</v>
       </c>
       <c r="K7" s="16"/>
       <c r="L7" s="23" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="2" customFormat="1" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C8" s="7">
         <v>9</v>
@@ -17303,31 +17192,31 @@
         <v>0</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G8" s="28" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J8" s="58">
         <v>42901</v>
       </c>
       <c r="K8" s="16"/>
       <c r="L8" s="23" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="2" customFormat="1" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C9" s="7">
         <v>9</v>
@@ -17339,31 +17228,31 @@
         <v>0</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J9" s="58">
         <v>42901</v>
       </c>
       <c r="K9" s="16"/>
       <c r="L9" s="23" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="2" customFormat="1" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>77</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>82</v>
       </c>
       <c r="C10" s="7">
         <v>9</v>
@@ -17375,31 +17264,31 @@
         <v>0</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G10" s="28" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J10" s="58">
         <v>42901</v>
       </c>
       <c r="K10" s="16"/>
       <c r="L10" s="23" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="2" customFormat="1" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>77</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>82</v>
       </c>
       <c r="C11" s="7">
         <v>9</v>
@@ -17411,31 +17300,31 @@
         <v>0</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G11" s="28" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J11" s="58">
         <v>42901</v>
       </c>
       <c r="K11" s="16"/>
       <c r="L11" s="23" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="2" customFormat="1" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C12" s="7">
         <v>9</v>
@@ -17447,31 +17336,31 @@
         <v>0</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G12" s="28" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="H12" s="28" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J12" s="58">
         <v>42901</v>
       </c>
       <c r="K12" s="16"/>
       <c r="L12" s="23" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:12" s="2" customFormat="1" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C13" s="7">
         <v>9</v>
@@ -17483,31 +17372,31 @@
         <v>0</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G13" s="28" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="H13" s="28" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J13" s="58">
         <v>42901</v>
       </c>
       <c r="K13" s="16"/>
       <c r="L13" s="23" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="2" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C14" s="7">
         <v>12</v>
@@ -17519,31 +17408,31 @@
         <v>0</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G14" s="28" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="H14" s="28" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J14" s="58">
         <v>42901</v>
       </c>
       <c r="K14" s="16"/>
       <c r="L14" s="23" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="2" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C15" s="7">
         <v>12</v>
@@ -17555,31 +17444,31 @@
         <v>0</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G15" s="28" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="H15" s="28" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J15" s="58">
         <v>42901</v>
       </c>
       <c r="K15" s="16"/>
       <c r="L15" s="23" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:12" s="2" customFormat="1" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C16" s="7">
         <v>12</v>
@@ -17591,31 +17480,31 @@
         <v>0</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G16" s="28" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="H16" s="28" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J16" s="58">
         <v>42901</v>
       </c>
       <c r="K16" s="16"/>
       <c r="L16" s="23" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="2" customFormat="1" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C17" s="7">
         <v>12</v>
@@ -17627,31 +17516,31 @@
         <v>0</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G17" s="28" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="H17" s="28" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J17" s="58">
         <v>42901</v>
       </c>
       <c r="K17" s="16"/>
       <c r="L17" s="23" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:12" s="2" customFormat="1" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C18" s="7">
         <v>12</v>
@@ -17663,31 +17552,31 @@
         <v>0</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G18" s="28" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J18" s="58">
         <v>42901</v>
       </c>
       <c r="K18" s="16"/>
       <c r="L18" s="23" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:12" s="2" customFormat="1" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C19" s="7">
         <v>12</v>
@@ -17699,31 +17588,31 @@
         <v>0</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G19" s="28" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J19" s="58">
         <v>42901</v>
       </c>
       <c r="K19" s="16"/>
       <c r="L19" s="23" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:12" s="2" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C20" s="7">
         <v>12</v>
@@ -17735,31 +17624,31 @@
         <v>0</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G20" s="28" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J20" s="58">
         <v>42901</v>
       </c>
       <c r="K20" s="16"/>
       <c r="L20" s="23" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:12" s="2" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C21" s="7">
         <v>12</v>
@@ -17771,31 +17660,31 @@
         <v>0</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G21" s="28" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J21" s="58">
         <v>42901</v>
       </c>
       <c r="K21" s="16"/>
       <c r="L21" s="23" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:12" s="2" customFormat="1" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>77</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>82</v>
       </c>
       <c r="C22" s="7">
         <v>12</v>
@@ -17807,31 +17696,31 @@
         <v>0</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G22" s="28" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J22" s="58">
         <v>42901</v>
       </c>
       <c r="K22" s="16"/>
       <c r="L22" s="23" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:12" s="2" customFormat="1" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>77</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>82</v>
       </c>
       <c r="C23" s="7">
         <v>12</v>
@@ -17843,29 +17732,29 @@
         <v>0</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G23" s="28" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="H23" s="28"/>
       <c r="I23" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J23" s="58">
         <v>42901</v>
       </c>
       <c r="K23" s="16"/>
       <c r="L23" s="23" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:12" s="2" customFormat="1" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A24" s="19" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C24" s="7">
         <v>12</v>
@@ -17877,31 +17766,31 @@
         <v>0</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G24" s="28" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="H24" s="28" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J24" s="58">
         <v>42901</v>
       </c>
       <c r="K24" s="16"/>
       <c r="L24" s="23" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:12" s="2" customFormat="1" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A25" s="19" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C25" s="7">
         <v>12</v>
@@ -17913,28 +17802,28 @@
         <v>0</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G25" s="28" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="H25" s="28" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J25" s="58">
         <v>42901</v>
       </c>
       <c r="K25" s="16"/>
       <c r="L25" s="23" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:12" s="2" customFormat="1" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A26" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>11</v>
@@ -17949,28 +17838,28 @@
         <v>0</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G26" s="28" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="H26" s="28" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J26" s="58">
         <v>42901</v>
       </c>
       <c r="K26" s="16"/>
       <c r="L26" s="23" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:12" s="2" customFormat="1" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A27" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>11</v>
@@ -17985,28 +17874,28 @@
         <v>0</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G27" s="28" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="H27" s="28" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J27" s="58">
         <v>42901</v>
       </c>
       <c r="K27" s="16"/>
       <c r="L27" s="23" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:12" s="2" customFormat="1" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A28" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>11</v>
@@ -18021,28 +17910,28 @@
         <v>0</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G28" s="28" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="H28" s="28" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J28" s="58">
         <v>42901</v>
       </c>
       <c r="K28" s="16"/>
       <c r="L28" s="23" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:12" s="2" customFormat="1" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A29" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>11</v>
@@ -18057,28 +17946,28 @@
         <v>0</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G29" s="28" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="H29" s="28" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J29" s="58">
         <v>42901</v>
       </c>
       <c r="K29" s="16"/>
       <c r="L29" s="23" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:12" s="2" customFormat="1" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A30" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>11</v>
@@ -18093,28 +17982,28 @@
         <v>0</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G30" s="28" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J30" s="58">
         <v>42901</v>
       </c>
       <c r="K30" s="16"/>
       <c r="L30" s="23" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:12" s="2" customFormat="1" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>11</v>
@@ -18129,29 +18018,29 @@
         <v>0</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G31" s="28" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J31" s="58">
         <v>42901</v>
       </c>
       <c r="K31" s="16"/>
       <c r="L31" s="23" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:12" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A32" s="19"/>
       <c r="B32" s="64" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C32" s="65">
         <v>12</v>
@@ -18164,11 +18053,11 @@
       </c>
       <c r="F32" s="64"/>
       <c r="G32" s="64" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="H32" s="64"/>
       <c r="I32" s="64" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J32" s="58">
         <v>42901</v>
@@ -18179,7 +18068,7 @@
     <row r="33" spans="1:12" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A33" s="19"/>
       <c r="B33" s="64" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C33" s="65">
         <v>12</v>
@@ -18192,11 +18081,11 @@
       </c>
       <c r="F33" s="64"/>
       <c r="G33" s="64" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="H33" s="64"/>
       <c r="I33" s="64" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J33" s="58">
         <v>42901</v>
@@ -18206,10 +18095,10 @@
     </row>
     <row r="34" spans="1:12" s="4" customFormat="1" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A34" s="19" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C34" s="12">
         <v>12</v>
@@ -18221,31 +18110,31 @@
         <v>0</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G34" s="39" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J34" s="13">
         <v>41051</v>
       </c>
       <c r="K34" s="15"/>
       <c r="L34" s="23" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A35" s="19" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C35" s="12">
         <v>12</v>
@@ -18257,31 +18146,31 @@
         <v>0</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G35" s="39" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="I35" s="11" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="J35" s="13">
         <v>41754</v>
       </c>
       <c r="K35" s="15"/>
       <c r="L35" s="23" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A36" s="19" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C36" s="12">
         <v>12</v>
@@ -18293,31 +18182,31 @@
         <v>0</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G36" s="39" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="J36" s="13">
         <v>41754</v>
       </c>
       <c r="K36" s="15"/>
       <c r="L36" s="23" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A37" s="19" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C37" s="12">
         <v>12</v>
@@ -18329,23 +18218,23 @@
         <v>0</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G37" s="39" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="I37" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J37" s="13">
         <v>41028</v>
       </c>
       <c r="K37" s="15"/>
       <c r="L37" s="23" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -18388,42 +18277,42 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E1" s="38" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>15</v>
-      </c>
       <c r="H1" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="K1" s="22" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B2" s="12">
         <v>1000</v>
@@ -18435,14 +18324,14 @@
         <v>0</v>
       </c>
       <c r="E2" s="39" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="F2" s="13">
         <v>38743</v>
       </c>
       <c r="G2" s="15"/>
       <c r="H2" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I2" s="12">
         <v>0</v>
@@ -18451,12 +18340,12 @@
         <v>0</v>
       </c>
       <c r="K2" s="23" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B3" s="12">
         <v>1000</v>
@@ -18468,14 +18357,14 @@
         <v>0</v>
       </c>
       <c r="E3" s="39" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="F3" s="13">
         <v>38734</v>
       </c>
       <c r="G3" s="15"/>
       <c r="H3" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I3" s="12">
         <v>0</v>
@@ -18484,12 +18373,12 @@
         <v>0</v>
       </c>
       <c r="K3" s="23" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B4" s="12">
         <v>1000</v>
@@ -18501,14 +18390,14 @@
         <v>0</v>
       </c>
       <c r="E4" s="39" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="F4" s="13">
         <v>40156</v>
       </c>
       <c r="G4" s="15"/>
       <c r="H4" s="11" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="I4" s="12">
         <v>0</v>
@@ -18517,7 +18406,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="23" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -18527,12 +18416,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -18650,15 +18536,25 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B179B82E-BD24-4A2C-B2DF-FF255F83D4B2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3FD72DA2-B5B6-4D8B-8858-ABF6A80C1050}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -18680,16 +18576,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3FD72DA2-B5B6-4D8B-8858-ABF6A80C1050}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B179B82E-BD24-4A2C-B2DF-FF255F83D4B2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>